--- a/examples/example_targetSa.xlsx
+++ b/examples/example_targetSa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>M</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>WNA</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,5629 +568,5643 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.01</v>
-      </c>
-      <c r="B7">
-        <v>8.8917434000000004E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.107864588</v>
-      </c>
-      <c r="D7">
-        <v>9.7935401000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="B8">
-        <v>8.9166559000000006E-2</v>
+        <v>8.8917434000000004E-2</v>
       </c>
       <c r="C8">
-        <v>0.108157001</v>
+        <v>0.107864588</v>
       </c>
       <c r="D8">
-        <v>9.8208055000000002E-2</v>
+        <v>9.7935401000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="B9">
-        <v>8.9394599000000005E-2</v>
+        <v>8.9166559000000006E-2</v>
       </c>
       <c r="C9">
-        <v>0.108424664</v>
+        <v>0.108157001</v>
       </c>
       <c r="D9">
-        <v>9.8457619999999996E-2</v>
+        <v>9.8208055000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="B10">
-        <v>8.9604869000000004E-2</v>
+        <v>8.9394599000000005E-2</v>
       </c>
       <c r="C10">
-        <v>0.108671427</v>
+        <v>0.108424664</v>
       </c>
       <c r="D10">
-        <v>9.8687746000000007E-2</v>
+        <v>9.8457619999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="B11">
-        <v>8.9800023000000007E-2</v>
+        <v>8.9604869000000004E-2</v>
       </c>
       <c r="C11">
-        <v>0.10890042</v>
+        <v>0.108671427</v>
       </c>
       <c r="D11">
-        <v>9.8901317000000002E-2</v>
+        <v>9.8687746000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="B12">
-        <v>8.9982039999999999E-2</v>
+        <v>8.9800023000000007E-2</v>
       </c>
       <c r="C12">
-        <v>0.109114051</v>
+        <v>0.10890042</v>
       </c>
       <c r="D12">
-        <v>9.9100530000000006E-2</v>
+        <v>9.8901317000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B13">
-        <v>9.0152687999999995E-2</v>
+        <v>8.9982039999999999E-2</v>
       </c>
       <c r="C13">
-        <v>0.10931429300000001</v>
+        <v>0.109114051</v>
       </c>
       <c r="D13">
-        <v>9.9287293999999998E-2</v>
+        <v>9.9100530000000006E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="B14">
-        <v>9.0313286000000007E-2</v>
+        <v>9.0152687999999995E-2</v>
       </c>
       <c r="C14">
-        <v>0.10950270300000001</v>
+        <v>0.10931429300000001</v>
       </c>
       <c r="D14">
-        <v>9.9463045999999999E-2</v>
+        <v>9.9287293999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="B15">
-        <v>9.0464920000000004E-2</v>
+        <v>9.0313286000000007E-2</v>
       </c>
       <c r="C15">
-        <v>0.109680615</v>
+        <v>0.10950270300000001</v>
       </c>
       <c r="D15">
-        <v>9.9628992E-2</v>
+        <v>9.9463045999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>9.0608633999999993E-2</v>
+        <v>9.0464920000000004E-2</v>
       </c>
       <c r="C16">
-        <v>0.109849192</v>
+        <v>0.109680615</v>
       </c>
       <c r="D16">
-        <v>9.9786266999999998E-2</v>
+        <v>9.9628992E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="B17">
-        <v>9.0745136000000004E-2</v>
+        <v>9.0608633999999993E-2</v>
       </c>
       <c r="C17">
-        <v>0.110009335</v>
+        <v>0.109849192</v>
       </c>
       <c r="D17">
-        <v>9.9935643000000005E-2</v>
+        <v>9.9786266999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="B18">
-        <v>9.1481439999999997E-2</v>
+        <v>9.0745136000000004E-2</v>
       </c>
       <c r="C18">
-        <v>0.11082779600000001</v>
+        <v>0.110009335</v>
       </c>
       <c r="D18">
-        <v>0.10070317199999999</v>
+        <v>9.9935643000000005E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="B19">
-        <v>9.2187724999999998E-2</v>
+        <v>9.1481439999999997E-2</v>
       </c>
       <c r="C19">
-        <v>0.111611612</v>
+        <v>0.11082779600000001</v>
       </c>
       <c r="D19">
-        <v>0.101438589</v>
+        <v>0.10070317199999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2.3E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="B20">
-        <v>9.2866443000000007E-2</v>
+        <v>9.2187724999999998E-2</v>
       </c>
       <c r="C20">
-        <v>0.112363666</v>
+        <v>0.111611612</v>
       </c>
       <c r="D20">
-        <v>0.102144547</v>
+        <v>0.101438589</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="B21">
-        <v>9.3519836999999995E-2</v>
+        <v>9.2866443000000007E-2</v>
       </c>
       <c r="C21">
-        <v>0.113086596</v>
+        <v>0.112363666</v>
       </c>
       <c r="D21">
-        <v>0.10282345900000001</v>
+        <v>0.102144547</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="B22">
-        <v>9.4149849999999993E-2</v>
+        <v>9.3519836999999995E-2</v>
       </c>
       <c r="C22">
-        <v>0.113782622</v>
+        <v>0.113086596</v>
       </c>
       <c r="D22">
-        <v>0.103477478</v>
+        <v>0.10282345900000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B23">
-        <v>9.4758175E-2</v>
+        <v>9.4149849999999993E-2</v>
       </c>
       <c r="C23">
-        <v>0.114453755</v>
+        <v>0.113782622</v>
       </c>
       <c r="D23">
-        <v>0.104108296</v>
+        <v>0.103477478</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B24">
-        <v>9.5346369E-2</v>
+        <v>9.4758175E-2</v>
       </c>
       <c r="C24">
-        <v>0.115101852</v>
+        <v>0.114453755</v>
       </c>
       <c r="D24">
-        <v>0.104717724</v>
+        <v>0.104108296</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="B25">
-        <v>9.5915846999999999E-2</v>
+        <v>9.5346369E-2</v>
       </c>
       <c r="C25">
-        <v>0.11572846000000001</v>
+        <v>0.115101852</v>
       </c>
       <c r="D25">
-        <v>0.105307214</v>
+        <v>0.104717724</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="B26">
-        <v>9.6467800000000006E-2</v>
+        <v>9.5915846999999999E-2</v>
       </c>
       <c r="C26">
-        <v>0.116335019</v>
+        <v>0.11572846000000001</v>
       </c>
       <c r="D26">
-        <v>0.10587806299999999</v>
+        <v>0.105307214</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="B27">
-        <v>9.7003310999999995E-2</v>
+        <v>9.6467800000000006E-2</v>
       </c>
       <c r="C27">
-        <v>0.11692282599999999</v>
+        <v>0.116335019</v>
       </c>
       <c r="D27">
-        <v>0.106431469</v>
+        <v>0.10587806299999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3.1E-2</v>
+        <v>0.03</v>
       </c>
       <c r="B28">
-        <v>9.8362571999999995E-2</v>
+        <v>9.7003310999999995E-2</v>
       </c>
       <c r="C28">
-        <v>0.118421681</v>
+        <v>0.11692282599999999</v>
       </c>
       <c r="D28">
-        <v>0.10783200699999999</v>
+        <v>0.106431469</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3.2000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="B29">
-        <v>9.9691793000000001E-2</v>
+        <v>9.8362571999999995E-2</v>
       </c>
       <c r="C29">
-        <v>0.119884275</v>
+        <v>0.118421681</v>
       </c>
       <c r="D29">
-        <v>0.10919949399999999</v>
+        <v>0.10783200699999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3.3000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="B30">
-        <v>0.10099256</v>
+        <v>9.9691793000000001E-2</v>
       </c>
       <c r="C30">
-        <v>0.12131259599999999</v>
+        <v>0.119884275</v>
       </c>
       <c r="D30">
-        <v>0.110535726</v>
+        <v>0.10919949399999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3.4000000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B31">
-        <v>0.102266423</v>
+        <v>0.10099256</v>
       </c>
       <c r="C31">
-        <v>0.122708634</v>
+        <v>0.12131259599999999</v>
       </c>
       <c r="D31">
-        <v>0.11184243100000001</v>
+        <v>0.110535726</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="B32">
-        <v>0.103514574</v>
+        <v>0.102266423</v>
       </c>
       <c r="C32">
-        <v>0.124073766</v>
+        <v>0.122708634</v>
       </c>
       <c r="D32">
-        <v>0.113120899</v>
+        <v>0.11184243100000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="B33">
-        <v>0.10473834</v>
+        <v>0.103514574</v>
       </c>
       <c r="C33">
-        <v>0.12540964800000001</v>
+        <v>0.124073766</v>
       </c>
       <c r="D33">
-        <v>0.114372663</v>
+        <v>0.113120899</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="B34">
-        <v>0.10593888899999999</v>
+        <v>0.10473834</v>
       </c>
       <c r="C34">
-        <v>0.126717791</v>
+        <v>0.12540964800000001</v>
       </c>
       <c r="D34">
-        <v>0.11559902900000001</v>
+        <v>0.114372663</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3.7999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="B35">
-        <v>0.10711720600000001</v>
+        <v>0.10593888899999999</v>
       </c>
       <c r="C35">
-        <v>0.12799938</v>
+        <v>0.126717791</v>
       </c>
       <c r="D35">
-        <v>0.11680111999999999</v>
+        <v>0.11559902900000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="B36">
-        <v>0.108274341</v>
+        <v>0.10711720600000001</v>
       </c>
       <c r="C36">
-        <v>0.12925571199999999</v>
+        <v>0.12799938</v>
       </c>
       <c r="D36">
-        <v>0.117980085</v>
+        <v>0.11680111999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="B37">
-        <v>0.10941121700000001</v>
+        <v>0.108274341</v>
       </c>
       <c r="C37">
-        <v>0.13048784399999999</v>
+        <v>0.12925571199999999</v>
       </c>
       <c r="D37">
-        <v>0.119136915</v>
+        <v>0.117980085</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4.1000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="B38">
-        <v>0.110894307</v>
+        <v>0.10941121700000001</v>
       </c>
       <c r="C38">
-        <v>0.13214983</v>
+        <v>0.13048784399999999</v>
       </c>
       <c r="D38">
-        <v>0.120686144</v>
+        <v>0.119136915</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="B39">
-        <v>0.11231856</v>
+        <v>0.110894307</v>
       </c>
       <c r="C39">
-        <v>0.13378897300000001</v>
+        <v>0.13214983</v>
       </c>
       <c r="D39">
-        <v>0.12221468200000001</v>
+        <v>0.120686144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="B40">
-        <v>0.113724642</v>
+        <v>0.11231856</v>
       </c>
       <c r="C40">
-        <v>0.13540619600000001</v>
+        <v>0.13378897300000001</v>
       </c>
       <c r="D40">
-        <v>0.123723365</v>
+        <v>0.12221468200000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="B41">
-        <v>0.115113094</v>
+        <v>0.113724642</v>
       </c>
       <c r="C41">
-        <v>0.137002081</v>
+        <v>0.13540619600000001</v>
       </c>
       <c r="D41">
-        <v>0.12521269900000001</v>
+        <v>0.123723365</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="B42">
-        <v>0.11648462699999999</v>
+        <v>0.115113094</v>
       </c>
       <c r="C42">
-        <v>0.13857756600000001</v>
+        <v>0.137002081</v>
       </c>
       <c r="D42">
-        <v>0.126683563</v>
+        <v>0.12521269900000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="B43">
-        <v>0.117839746</v>
+        <v>0.11648462699999999</v>
       </c>
       <c r="C43">
-        <v>0.140133277</v>
+        <v>0.13857756600000001</v>
       </c>
       <c r="D43">
-        <v>0.12813644099999999</v>
+        <v>0.126683563</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4.7E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="B44">
-        <v>0.11917907</v>
+        <v>0.117839746</v>
       </c>
       <c r="C44">
-        <v>0.14166991400000001</v>
+        <v>0.140133277</v>
       </c>
       <c r="D44">
-        <v>0.12957206399999999</v>
+        <v>0.12813644099999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="B45">
-        <v>0.120503068</v>
+        <v>0.11917907</v>
       </c>
       <c r="C45">
-        <v>0.14318805900000001</v>
+        <v>0.14166991400000001</v>
       </c>
       <c r="D45">
-        <v>0.13099087800000001</v>
+        <v>0.12957206399999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="B46">
-        <v>0.12181214999999999</v>
+        <v>0.120503068</v>
       </c>
       <c r="C46">
-        <v>0.14468830799999999</v>
+        <v>0.14318805900000001</v>
       </c>
       <c r="D46">
-        <v>0.132393435</v>
+        <v>0.13099087800000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.05</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="B47">
-        <v>0.12310684500000001</v>
+        <v>0.12181214999999999</v>
       </c>
       <c r="C47">
-        <v>0.146171197</v>
+        <v>0.14468830799999999</v>
       </c>
       <c r="D47">
-        <v>0.13378019599999999</v>
+        <v>0.132393435</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B48">
-        <v>0.124778494</v>
+        <v>0.12310684500000001</v>
       </c>
       <c r="C48">
-        <v>0.14811402600000001</v>
+        <v>0.146171197</v>
       </c>
       <c r="D48">
-        <v>0.135581329</v>
+        <v>0.13378019599999999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="B49">
-        <v>0.12643945200000001</v>
+        <v>0.124778494</v>
       </c>
       <c r="C49">
-        <v>0.15004377099999999</v>
+        <v>0.14811402600000001</v>
       </c>
       <c r="D49">
-        <v>0.137370676</v>
+        <v>0.135581329</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="B50">
-        <v>0.12808994900000001</v>
+        <v>0.12643945200000001</v>
       </c>
       <c r="C50">
-        <v>0.15196073099999999</v>
+        <v>0.15004377099999999</v>
       </c>
       <c r="D50">
-        <v>0.13914848899999999</v>
+        <v>0.137370676</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5.3999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="B51">
-        <v>0.129730389</v>
+        <v>0.12808994900000001</v>
       </c>
       <c r="C51">
-        <v>0.153865367</v>
+        <v>0.15196073099999999</v>
       </c>
       <c r="D51">
-        <v>0.14091523</v>
+        <v>0.13914848899999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="B52">
-        <v>0.13136088800000001</v>
+        <v>0.129730389</v>
       </c>
       <c r="C52">
-        <v>0.15575788900000001</v>
+        <v>0.153865367</v>
       </c>
       <c r="D52">
-        <v>0.14267107800000001</v>
+        <v>0.14091523</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5.6000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="B53">
-        <v>0.132981762</v>
+        <v>0.13136088800000001</v>
       </c>
       <c r="C53">
-        <v>0.15763866900000001</v>
+        <v>0.15575788900000001</v>
       </c>
       <c r="D53">
-        <v>0.14441631699999999</v>
+        <v>0.14267107800000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="B54">
-        <v>0.13459315899999999</v>
+        <v>0.132981762</v>
       </c>
       <c r="C54">
-        <v>0.159507856</v>
+        <v>0.15763866900000001</v>
       </c>
       <c r="D54">
-        <v>0.14615118499999999</v>
+        <v>0.14441631699999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="B55">
-        <v>0.13619537700000001</v>
+        <v>0.13459315899999999</v>
       </c>
       <c r="C55">
-        <v>0.161365807</v>
+        <v>0.159507856</v>
       </c>
       <c r="D55">
-        <v>0.14787589000000001</v>
+        <v>0.14615118499999999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B56">
-        <v>0.13778847499999999</v>
+        <v>0.13619537700000001</v>
       </c>
       <c r="C56">
-        <v>0.163212672</v>
+        <v>0.161365807</v>
       </c>
       <c r="D56">
-        <v>0.14959061100000001</v>
+        <v>0.14787589000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="B57">
-        <v>0.139372885</v>
+        <v>0.13778847499999999</v>
       </c>
       <c r="C57">
-        <v>0.16504891199999999</v>
+        <v>0.163212672</v>
       </c>
       <c r="D57">
-        <v>0.15129579600000001</v>
+        <v>0.14959061100000001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6.0999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="B58">
-        <v>0.14094863799999999</v>
+        <v>0.139372885</v>
       </c>
       <c r="C58">
-        <v>0.16687452799999999</v>
+        <v>0.16504891199999999</v>
       </c>
       <c r="D58">
-        <v>0.152991399</v>
+        <v>0.15129579600000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6.2E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="B59">
-        <v>0.14251597199999999</v>
+        <v>0.14094863799999999</v>
       </c>
       <c r="C59">
-        <v>0.16868992099999999</v>
+        <v>0.16687452799999999</v>
       </c>
       <c r="D59">
-        <v>0.154677808</v>
+        <v>0.152991399</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="B60">
-        <v>0.144075066</v>
+        <v>0.14251597199999999</v>
       </c>
       <c r="C60">
-        <v>0.17049524199999999</v>
+        <v>0.16868992099999999</v>
       </c>
       <c r="D60">
-        <v>0.15635511299999999</v>
+        <v>0.154677808</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6.4000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="B61">
-        <v>0.14562597899999999</v>
+        <v>0.144075066</v>
       </c>
       <c r="C61">
-        <v>0.17229066800000001</v>
+        <v>0.17049524199999999</v>
       </c>
       <c r="D61">
-        <v>0.15802349199999999</v>
+        <v>0.15635511299999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6.5000000000000002E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="B62">
-        <v>0.147169039</v>
+        <v>0.14562597899999999</v>
       </c>
       <c r="C62">
-        <v>0.174076378</v>
+        <v>0.17229066800000001</v>
       </c>
       <c r="D62">
-        <v>0.15968318300000001</v>
+        <v>0.15802349199999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6.6000000000000003E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="B63">
-        <v>0.14870438</v>
+        <v>0.147169039</v>
       </c>
       <c r="C63">
-        <v>0.175852746</v>
+        <v>0.174076378</v>
       </c>
       <c r="D63">
-        <v>0.16133441000000001</v>
+        <v>0.15968318300000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6.7000000000000004E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="B64">
-        <v>0.15023204700000001</v>
+        <v>0.14870438</v>
       </c>
       <c r="C64">
-        <v>0.177619785</v>
+        <v>0.175852746</v>
       </c>
       <c r="D64">
-        <v>0.16297720399999999</v>
+        <v>0.16133441000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="B65">
-        <v>0.151752263</v>
+        <v>0.15023204700000001</v>
       </c>
       <c r="C65">
-        <v>0.17937775</v>
+        <v>0.177619785</v>
       </c>
       <c r="D65">
-        <v>0.16461183099999999</v>
+        <v>0.16297720399999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="B66">
-        <v>0.153265238</v>
+        <v>0.151752263</v>
       </c>
       <c r="C66">
-        <v>0.18112681799999999</v>
+        <v>0.17937775</v>
       </c>
       <c r="D66">
-        <v>0.16623850200000001</v>
+        <v>0.16461183099999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7.0000000000000007E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="B67">
-        <v>0.15477097000000001</v>
+        <v>0.153265238</v>
       </c>
       <c r="C67">
-        <v>0.18286712499999999</v>
+        <v>0.18112681799999999</v>
       </c>
       <c r="D67">
-        <v>0.16785720000000001</v>
+        <v>0.16623850200000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B68">
-        <v>0.15626967</v>
+        <v>0.15477097000000001</v>
       </c>
       <c r="C68">
-        <v>0.18459884800000001</v>
+        <v>0.18286712499999999</v>
       </c>
       <c r="D68">
-        <v>0.169468179</v>
+        <v>0.16785720000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7.1999999999999995E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="B69">
-        <v>0.157761499</v>
+        <v>0.15626967</v>
       </c>
       <c r="C69">
-        <v>0.18632219699999999</v>
+        <v>0.18459884800000001</v>
       </c>
       <c r="D69">
-        <v>0.17107160399999999</v>
+        <v>0.169468179</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7.2999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="B70">
-        <v>0.159246579</v>
+        <v>0.157761499</v>
       </c>
       <c r="C70">
-        <v>0.18803732100000001</v>
+        <v>0.18632219699999999</v>
       </c>
       <c r="D70">
-        <v>0.172667608</v>
+        <v>0.17107160399999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7.3999999999999996E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="B71">
-        <v>0.160724908</v>
+        <v>0.159246579</v>
       </c>
       <c r="C71">
-        <v>0.189744249</v>
+        <v>0.18803732100000001</v>
       </c>
       <c r="D71">
-        <v>0.17425625</v>
+        <v>0.172667608</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7.4999999999999997E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="B72">
-        <v>0.16219671099999999</v>
+        <v>0.160724908</v>
       </c>
       <c r="C72">
-        <v>0.19144323499999999</v>
+        <v>0.189744249</v>
       </c>
       <c r="D72">
-        <v>0.17583769599999999</v>
+        <v>0.17425625</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7.5999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B73">
-        <v>0.16365158599999999</v>
+        <v>0.16219671099999999</v>
       </c>
       <c r="C73">
-        <v>0.19313778000000001</v>
+        <v>0.19144323499999999</v>
       </c>
       <c r="D73">
-        <v>0.17740666899999999</v>
+        <v>0.17583769599999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7.6999999999999999E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="B74">
-        <v>0.16510011299999999</v>
+        <v>0.16365158599999999</v>
       </c>
       <c r="C74">
-        <v>0.194824994</v>
+        <v>0.19313778000000001</v>
       </c>
       <c r="D74">
-        <v>0.17896883199999999</v>
+        <v>0.17740666899999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7.8E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="B75">
-        <v>0.16654244100000001</v>
+        <v>0.16510011299999999</v>
       </c>
       <c r="C75">
-        <v>0.19650501000000001</v>
+        <v>0.194824994</v>
       </c>
       <c r="D75">
-        <v>0.18052429</v>
+        <v>0.17896883199999999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7.9000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="B76">
-        <v>0.16797856999999999</v>
+        <v>0.16654244100000001</v>
       </c>
       <c r="C76">
-        <v>0.19817785900000001</v>
+        <v>0.19650501000000001</v>
       </c>
       <c r="D76">
-        <v>0.18207311600000001</v>
+        <v>0.18052429</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.08</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="B77">
-        <v>0.16940875399999999</v>
+        <v>0.16797856999999999</v>
       </c>
       <c r="C77">
-        <v>0.199843824</v>
+        <v>0.19817785900000001</v>
       </c>
       <c r="D77">
-        <v>0.183615521</v>
+        <v>0.18207311600000001</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="B78">
-        <v>0.17083300700000001</v>
+        <v>0.16940875399999999</v>
       </c>
       <c r="C78">
-        <v>0.20150286000000001</v>
+        <v>0.199843824</v>
       </c>
       <c r="D78">
-        <v>0.18515153200000001</v>
+        <v>0.183615521</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="B79">
-        <v>0.17225146299999999</v>
+        <v>0.17083300700000001</v>
       </c>
       <c r="C79">
-        <v>0.20315524900000001</v>
+        <v>0.20150286000000001</v>
       </c>
       <c r="D79">
-        <v>0.18668133000000001</v>
+        <v>0.18515153200000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="B80">
-        <v>0.173664182</v>
+        <v>0.17225146299999999</v>
       </c>
       <c r="C80">
-        <v>0.20480100800000001</v>
+        <v>0.20315524900000001</v>
       </c>
       <c r="D80">
-        <v>0.18820500400000001</v>
+        <v>0.18668133000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8.4000000000000005E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="B81">
-        <v>0.17507117999999999</v>
+        <v>0.173664182</v>
       </c>
       <c r="C81">
-        <v>0.20644015099999999</v>
+        <v>0.20480100800000001</v>
       </c>
       <c r="D81">
-        <v>0.189722478</v>
+        <v>0.18820500400000001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>8.5000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="B82">
-        <v>0.17647273799999999</v>
+        <v>0.17507117999999999</v>
       </c>
       <c r="C82">
-        <v>0.20807293099999999</v>
+        <v>0.20644015099999999</v>
       </c>
       <c r="D82">
-        <v>0.191234082</v>
+        <v>0.189722478</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="B83">
-        <v>0.17786870900000001</v>
+        <v>0.17647273799999999</v>
       </c>
       <c r="C83">
-        <v>0.20969933299999999</v>
+        <v>0.20807293099999999</v>
       </c>
       <c r="D83">
-        <v>0.19273969499999999</v>
+        <v>0.191234082</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="B84">
-        <v>0.179259434</v>
+        <v>0.17786870900000001</v>
       </c>
       <c r="C84">
-        <v>0.21131952100000001</v>
+        <v>0.20969933299999999</v>
       </c>
       <c r="D84">
-        <v>0.194239631</v>
+        <v>0.19273969499999999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8.7999999999999995E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="B85">
-        <v>0.18064475099999999</v>
+        <v>0.179259434</v>
       </c>
       <c r="C85">
-        <v>0.21293361499999999</v>
+        <v>0.21131952100000001</v>
       </c>
       <c r="D85">
-        <v>0.19573380100000001</v>
+        <v>0.194239631</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="B86">
-        <v>0.182024926</v>
+        <v>0.18064475099999999</v>
       </c>
       <c r="C86">
-        <v>0.214541659</v>
+        <v>0.21293361499999999</v>
       </c>
       <c r="D86">
-        <v>0.19722242700000001</v>
+        <v>0.19573380100000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="B87">
-        <v>0.183399856</v>
+        <v>0.182024926</v>
       </c>
       <c r="C87">
-        <v>0.216143698</v>
+        <v>0.214541659</v>
       </c>
       <c r="D87">
-        <v>0.19870539000000001</v>
+        <v>0.19722242700000001</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9.0999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="B88">
-        <v>0.18476968999999999</v>
+        <v>0.183399856</v>
       </c>
       <c r="C88">
-        <v>0.217739865</v>
+        <v>0.216143698</v>
       </c>
       <c r="D88">
-        <v>0.20018297400000001</v>
+        <v>0.19870539000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="B89">
-        <v>0.18613460700000001</v>
+        <v>0.18476968999999999</v>
       </c>
       <c r="C89">
-        <v>0.219330311</v>
+        <v>0.217739865</v>
       </c>
       <c r="D89">
-        <v>0.201655209</v>
+        <v>0.20018297400000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="B90">
-        <v>0.18749454600000001</v>
+        <v>0.18613460700000001</v>
       </c>
       <c r="C90">
-        <v>0.220915109</v>
+        <v>0.219330311</v>
       </c>
       <c r="D90">
-        <v>0.20312207900000001</v>
+        <v>0.201655209</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9.4E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="B91">
-        <v>0.18884962799999999</v>
+        <v>0.18749454600000001</v>
       </c>
       <c r="C91">
-        <v>0.22249416999999999</v>
+        <v>0.220915109</v>
       </c>
       <c r="D91">
-        <v>0.204583764</v>
+        <v>0.20312207900000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="B92">
-        <v>0.19019992599999999</v>
+        <v>0.18884962799999999</v>
       </c>
       <c r="C92">
-        <v>0.22406768799999999</v>
+        <v>0.22249416999999999</v>
       </c>
       <c r="D92">
-        <v>0.206040218</v>
+        <v>0.204583764</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9.6000000000000002E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B93">
-        <v>0.191545457</v>
+        <v>0.19019992599999999</v>
       </c>
       <c r="C93">
-        <v>0.225635797</v>
+        <v>0.22406768799999999</v>
       </c>
       <c r="D93">
-        <v>0.20749166599999999</v>
+        <v>0.206040218</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9.7000000000000003E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="B94">
-        <v>0.19288630800000001</v>
+        <v>0.191545457</v>
       </c>
       <c r="C94">
-        <v>0.227198496</v>
+        <v>0.225635797</v>
       </c>
       <c r="D94">
-        <v>0.20893804699999999</v>
+        <v>0.20749166599999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9.8000000000000004E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="B95">
-        <v>0.194222584</v>
+        <v>0.19288630800000001</v>
       </c>
       <c r="C95">
-        <v>0.22875584700000001</v>
+        <v>0.227198496</v>
       </c>
       <c r="D95">
-        <v>0.21037948100000001</v>
+        <v>0.20893804699999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9.9000000000000005E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="B96">
-        <v>0.19555436100000001</v>
+        <v>0.194222584</v>
       </c>
       <c r="C96">
-        <v>0.23030804099999999</v>
+        <v>0.22875584700000001</v>
       </c>
       <c r="D96">
-        <v>0.21181610200000001</v>
+        <v>0.21037948100000001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="B97">
-        <v>0.19688156200000001</v>
+        <v>0.19555436100000001</v>
       </c>
       <c r="C97">
-        <v>0.231855005</v>
+        <v>0.23030804099999999</v>
       </c>
       <c r="D97">
-        <v>0.21324780600000001</v>
+        <v>0.21181610200000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.10100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B98">
-        <v>0.197404727</v>
+        <v>0.19688156200000001</v>
       </c>
       <c r="C98">
-        <v>0.23250922600000001</v>
+        <v>0.231855005</v>
       </c>
       <c r="D98">
-        <v>0.21383141</v>
+        <v>0.21324780600000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.10199999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="B99">
-        <v>0.19792285600000001</v>
+        <v>0.197404727</v>
       </c>
       <c r="C99">
-        <v>0.23315776899999999</v>
+        <v>0.23250922600000001</v>
       </c>
       <c r="D99">
-        <v>0.214409664</v>
+        <v>0.21383141</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.10299999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="B100">
-        <v>0.19843603700000001</v>
+        <v>0.19792285600000001</v>
       </c>
       <c r="C100">
-        <v>0.23380088800000001</v>
+        <v>0.23315776899999999</v>
       </c>
       <c r="D100">
-        <v>0.21498267400000001</v>
+        <v>0.214409664</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.104</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="B101">
-        <v>0.198944286</v>
+        <v>0.19843603700000001</v>
       </c>
       <c r="C101">
-        <v>0.23443844899999999</v>
+        <v>0.23380088800000001</v>
       </c>
       <c r="D101">
-        <v>0.21555043800000001</v>
+        <v>0.21498267400000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="B102">
-        <v>0.19944775100000001</v>
+        <v>0.198944286</v>
       </c>
       <c r="C102">
-        <v>0.23507055600000001</v>
+        <v>0.23443844899999999</v>
       </c>
       <c r="D102">
-        <v>0.216113061</v>
+        <v>0.21555043800000001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="B103">
-        <v>0.199946597</v>
+        <v>0.19944775100000001</v>
       </c>
       <c r="C103">
-        <v>0.23569753800000001</v>
+        <v>0.23507055600000001</v>
       </c>
       <c r="D103">
-        <v>0.21667078100000001</v>
+        <v>0.216113061</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="B104">
-        <v>0.20044063000000001</v>
+        <v>0.199946597</v>
       </c>
       <c r="C104">
-        <v>0.23631912499999999</v>
+        <v>0.23569753800000001</v>
       </c>
       <c r="D104">
-        <v>0.21722333099999999</v>
+        <v>0.21667078100000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="B105">
-        <v>0.20093007399999999</v>
+        <v>0.20044063000000001</v>
       </c>
       <c r="C105">
-        <v>0.236935481</v>
+        <v>0.23631912499999999</v>
       </c>
       <c r="D105">
-        <v>0.21777106800000001</v>
+        <v>0.21722333099999999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="B106">
-        <v>0.201407686</v>
+        <v>0.20093007399999999</v>
       </c>
       <c r="C106">
-        <v>0.23754681599999999</v>
+        <v>0.236935481</v>
       </c>
       <c r="D106">
-        <v>0.218313918</v>
+        <v>0.21777106800000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="B107">
-        <v>0.20182757100000001</v>
+        <v>0.201407686</v>
       </c>
       <c r="C107">
-        <v>0.238153264</v>
+        <v>0.23754681599999999</v>
       </c>
       <c r="D107">
-        <v>0.218852088</v>
+        <v>0.218313918</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="B108">
-        <v>0.20224276199999999</v>
+        <v>0.20182757100000001</v>
       </c>
       <c r="C108">
-        <v>0.238754511</v>
+        <v>0.238153264</v>
       </c>
       <c r="D108">
-        <v>0.21938554900000001</v>
+        <v>0.218852088</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="B109">
-        <v>0.20265349699999999</v>
+        <v>0.20224276199999999</v>
       </c>
       <c r="C109">
-        <v>0.23935107899999999</v>
+        <v>0.238754511</v>
       </c>
       <c r="D109">
-        <v>0.219914421</v>
+        <v>0.21938554900000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="B110">
-        <v>0.203059778</v>
+        <v>0.20265349699999999</v>
       </c>
       <c r="C110">
-        <v>0.23994267</v>
+        <v>0.23935107899999999</v>
       </c>
       <c r="D110">
-        <v>0.22043864399999999</v>
+        <v>0.219914421</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="B111">
-        <v>0.20346160199999999</v>
+        <v>0.203059778</v>
       </c>
       <c r="C111">
-        <v>0.24052947799999999</v>
+        <v>0.23994267</v>
       </c>
       <c r="D111">
-        <v>0.220958337</v>
+        <v>0.22043864399999999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="B112">
-        <v>0.20385925499999999</v>
+        <v>0.20346160199999999</v>
       </c>
       <c r="C112">
-        <v>0.24111177</v>
+        <v>0.24052947799999999</v>
       </c>
       <c r="D112">
-        <v>0.22147364899999999</v>
+        <v>0.220958337</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.11600000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="B113">
-        <v>0.20425254100000001</v>
+        <v>0.20385925499999999</v>
       </c>
       <c r="C113">
-        <v>0.24168928000000001</v>
+        <v>0.24111177</v>
       </c>
       <c r="D113">
-        <v>0.22198453500000001</v>
+        <v>0.22147364899999999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.11700000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="B114">
-        <v>0.20464178899999999</v>
+        <v>0.20425254100000001</v>
       </c>
       <c r="C114">
-        <v>0.24226239299999999</v>
+        <v>0.24168928000000001</v>
       </c>
       <c r="D114">
-        <v>0.22249121999999999</v>
+        <v>0.22198453500000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.11799999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="B115">
-        <v>0.205026865</v>
+        <v>0.20464178899999999</v>
       </c>
       <c r="C115">
-        <v>0.24283084299999999</v>
+        <v>0.24226239299999999</v>
       </c>
       <c r="D115">
-        <v>0.22299355300000001</v>
+        <v>0.22249121999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.11899999999999999</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="B116">
-        <v>0.20540788800000001</v>
+        <v>0.205026865</v>
       </c>
       <c r="C116">
-        <v>0.243394941</v>
+        <v>0.24283084299999999</v>
       </c>
       <c r="D116">
-        <v>0.223491728</v>
+        <v>0.22299355300000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.12</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="B117">
-        <v>0.20578487200000001</v>
+        <v>0.20540788800000001</v>
       </c>
       <c r="C117">
-        <v>0.24395449499999999</v>
+        <v>0.243394941</v>
       </c>
       <c r="D117">
-        <v>0.22398573199999999</v>
+        <v>0.223491728</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="B118">
-        <v>0.20615793800000001</v>
+        <v>0.20578487200000001</v>
       </c>
       <c r="C118">
-        <v>0.244509861</v>
+        <v>0.24395449499999999</v>
       </c>
       <c r="D118">
-        <v>0.224475592</v>
+        <v>0.22398573199999999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="B119">
-        <v>0.20652711400000001</v>
+        <v>0.20615793800000001</v>
       </c>
       <c r="C119">
-        <v>0.24506077200000001</v>
+        <v>0.244509861</v>
       </c>
       <c r="D119">
-        <v>0.22496138500000001</v>
+        <v>0.224475592</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="B120">
-        <v>0.20689249000000001</v>
+        <v>0.20652711400000001</v>
       </c>
       <c r="C120">
-        <v>0.245607615</v>
+        <v>0.24506077200000001</v>
       </c>
       <c r="D120">
-        <v>0.22544330400000001</v>
+        <v>0.22496138500000001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="B121">
-        <v>0.20725394799999999</v>
+        <v>0.20689249000000001</v>
       </c>
       <c r="C121">
-        <v>0.24615009099999999</v>
+        <v>0.245607615</v>
       </c>
       <c r="D121">
-        <v>0.22592108</v>
+        <v>0.22544330400000001</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="B122">
-        <v>0.20761178399999999</v>
+        <v>0.20725394799999999</v>
       </c>
       <c r="C122">
-        <v>0.2466885</v>
+        <v>0.24615009099999999</v>
       </c>
       <c r="D122">
-        <v>0.226395085</v>
+        <v>0.22592108</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="B123">
-        <v>0.20796597</v>
+        <v>0.20761178399999999</v>
       </c>
       <c r="C123">
-        <v>0.2472229</v>
+        <v>0.2466885</v>
       </c>
       <c r="D123">
-        <v>0.226865232</v>
+        <v>0.226395085</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="B124">
-        <v>0.20831652000000001</v>
+        <v>0.20796597</v>
       </c>
       <c r="C124">
-        <v>0.247753218</v>
+        <v>0.2472229</v>
       </c>
       <c r="D124">
-        <v>0.22733162300000001</v>
+        <v>0.226865232</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="B125">
-        <v>0.20866347800000001</v>
+        <v>0.20831652000000001</v>
       </c>
       <c r="C125">
-        <v>0.24827949699999999</v>
+        <v>0.247753218</v>
       </c>
       <c r="D125">
-        <v>0.22779418500000001</v>
+        <v>0.22733162300000001</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="B126">
-        <v>0.209006831</v>
+        <v>0.20866347800000001</v>
       </c>
       <c r="C126">
-        <v>0.248801842</v>
+        <v>0.24827949699999999</v>
       </c>
       <c r="D126">
-        <v>0.22825300700000001</v>
+        <v>0.22779418500000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="B127">
-        <v>0.20934681599999999</v>
+        <v>0.209006831</v>
       </c>
       <c r="C127">
-        <v>0.24932035799999999</v>
+        <v>0.248801842</v>
       </c>
       <c r="D127">
-        <v>0.22870826699999999</v>
+        <v>0.22825300700000001</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.13100000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="B128">
-        <v>0.20968331400000001</v>
+        <v>0.20934681599999999</v>
       </c>
       <c r="C128">
-        <v>0.24983501399999999</v>
+        <v>0.24932035799999999</v>
       </c>
       <c r="D128">
-        <v>0.229159892</v>
+        <v>0.22870826699999999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.13200000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="B129">
-        <v>0.21001647400000001</v>
+        <v>0.20968331400000001</v>
       </c>
       <c r="C129">
-        <v>0.25034588600000002</v>
+        <v>0.24983501399999999</v>
       </c>
       <c r="D129">
-        <v>0.22960792499999999</v>
+        <v>0.229159892</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.13300000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="B130">
-        <v>0.210346177</v>
+        <v>0.21001647400000001</v>
       </c>
       <c r="C130">
-        <v>0.25085291300000001</v>
+        <v>0.25034588600000002</v>
       </c>
       <c r="D130">
-        <v>0.23005230700000001</v>
+        <v>0.22960792499999999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.13400000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="B131">
-        <v>0.21067266200000001</v>
+        <v>0.210346177</v>
       </c>
       <c r="C131">
-        <v>0.25135621400000002</v>
+        <v>0.25085291300000001</v>
       </c>
       <c r="D131">
-        <v>0.23049335200000001</v>
+        <v>0.23005230700000001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.13500000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="B132">
-        <v>0.21099591300000001</v>
+        <v>0.21067266200000001</v>
       </c>
       <c r="C132">
-        <v>0.25185591000000002</v>
+        <v>0.25135621400000002</v>
       </c>
       <c r="D132">
-        <v>0.23093096900000001</v>
+        <v>0.23049335200000001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.13600000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="B133">
-        <v>0.21131588500000001</v>
+        <v>0.21099591300000001</v>
       </c>
       <c r="C133">
-        <v>0.25235196900000001</v>
+        <v>0.25185591000000002</v>
       </c>
       <c r="D133">
-        <v>0.231365025</v>
+        <v>0.23093096900000001</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.13700000000000001</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="B134">
-        <v>0.211632669</v>
+        <v>0.21131588500000001</v>
       </c>
       <c r="C134">
-        <v>0.25284436300000002</v>
+        <v>0.25235196900000001</v>
       </c>
       <c r="D134">
-        <v>0.231795743</v>
+        <v>0.231365025</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.13800000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="B135">
-        <v>0.211946368</v>
+        <v>0.211632669</v>
       </c>
       <c r="C135">
-        <v>0.25333324099999999</v>
+        <v>0.25284436300000002</v>
       </c>
       <c r="D135">
-        <v>0.23222316800000001</v>
+        <v>0.231795743</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.13900000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="B136">
-        <v>0.21225687900000001</v>
+        <v>0.211946368</v>
       </c>
       <c r="C136">
-        <v>0.25381860099999998</v>
+        <v>0.25333324099999999</v>
       </c>
       <c r="D136">
-        <v>0.23264726999999999</v>
+        <v>0.23222316800000001</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.14000000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="B137">
-        <v>0.212564424</v>
+        <v>0.21225687900000001</v>
       </c>
       <c r="C137">
-        <v>0.25430050500000001</v>
+        <v>0.25381860099999998</v>
       </c>
       <c r="D137">
-        <v>0.23306812299999999</v>
+        <v>0.23264726999999999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.14099999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B138">
-        <v>0.21286888400000001</v>
+        <v>0.212564424</v>
       </c>
       <c r="C138">
-        <v>0.25477886199999999</v>
+        <v>0.25430050500000001</v>
       </c>
       <c r="D138">
-        <v>0.23348571400000001</v>
+        <v>0.23306812299999999</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.14199999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="B139">
-        <v>0.21317032</v>
+        <v>0.21286888400000001</v>
       </c>
       <c r="C139">
-        <v>0.25525379199999998</v>
+        <v>0.25477886199999999</v>
       </c>
       <c r="D139">
-        <v>0.23390008500000001</v>
+        <v>0.23348571400000001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.14299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="B140">
-        <v>0.213468924</v>
+        <v>0.21317032</v>
       </c>
       <c r="C140">
-        <v>0.255725533</v>
+        <v>0.25525379199999998</v>
       </c>
       <c r="D140">
-        <v>0.23431138700000001</v>
+        <v>0.23390008500000001</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.14399999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="B141">
-        <v>0.21376450399999999</v>
+        <v>0.213468924</v>
       </c>
       <c r="C141">
-        <v>0.25619378700000001</v>
+        <v>0.255725533</v>
       </c>
       <c r="D141">
-        <v>0.23471948500000001</v>
+        <v>0.23431138700000001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>0.14499999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="B142">
-        <v>0.214057252</v>
+        <v>0.21376450399999999</v>
       </c>
       <c r="C142">
-        <v>0.25665873299999997</v>
+        <v>0.25619378700000001</v>
       </c>
       <c r="D142">
-        <v>0.23512455800000001</v>
+        <v>0.23471948500000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>0.14599999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="B143">
-        <v>0.21434710900000001</v>
+        <v>0.214057252</v>
       </c>
       <c r="C143">
-        <v>0.25712043000000001</v>
+        <v>0.25665873299999997</v>
       </c>
       <c r="D143">
-        <v>0.23552653200000001</v>
+        <v>0.23512455800000001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.14699999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="B144">
-        <v>0.21463420999999999</v>
+        <v>0.21434710900000001</v>
       </c>
       <c r="C144">
-        <v>0.25757899899999998</v>
+        <v>0.25712043000000001</v>
       </c>
       <c r="D144">
-        <v>0.235925511</v>
+        <v>0.23552653200000001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.14799999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="B145">
-        <v>0.21491849399999999</v>
+        <v>0.21463420999999999</v>
       </c>
       <c r="C145">
-        <v>0.25803419900000002</v>
+        <v>0.25757899899999998</v>
       </c>
       <c r="D145">
-        <v>0.23632144899999999</v>
+        <v>0.235925511</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0.14899999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="B146">
-        <v>0.215200007</v>
+        <v>0.21491849399999999</v>
       </c>
       <c r="C146">
-        <v>0.25848627099999999</v>
+        <v>0.25803419900000002</v>
       </c>
       <c r="D146">
-        <v>0.236714438</v>
+        <v>0.23632144899999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0.15</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="B147">
-        <v>0.21547891199999999</v>
+        <v>0.215200007</v>
       </c>
       <c r="C147">
-        <v>0.25893533200000002</v>
+        <v>0.25848627099999999</v>
       </c>
       <c r="D147">
-        <v>0.23710456499999999</v>
+        <v>0.236714438</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="B148">
-        <v>0.21491487300000001</v>
+        <v>0.21547891199999999</v>
       </c>
       <c r="C148">
-        <v>0.25844636599999998</v>
+        <v>0.25893533200000002</v>
       </c>
       <c r="D148">
-        <v>0.23660519699999999</v>
+        <v>0.23710456499999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="B149">
-        <v>0.21435377</v>
+        <v>0.21491487300000001</v>
       </c>
       <c r="C149">
-        <v>0.25795963399999999</v>
+        <v>0.25844636599999998</v>
       </c>
       <c r="D149">
-        <v>0.236108243</v>
+        <v>0.23660519699999999</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="B150">
-        <v>0.21379548300000001</v>
+        <v>0.21435377</v>
       </c>
       <c r="C150">
-        <v>0.25747478000000001</v>
+        <v>0.25795963399999999</v>
       </c>
       <c r="D150">
-        <v>0.23561342099999999</v>
+        <v>0.236108243</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="B151">
-        <v>0.213240176</v>
+        <v>0.21379548300000001</v>
       </c>
       <c r="C151">
-        <v>0.25699222100000002</v>
+        <v>0.25747478000000001</v>
       </c>
       <c r="D151">
-        <v>0.235120997</v>
+        <v>0.23561342099999999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="B152">
-        <v>0.21268758199999999</v>
+        <v>0.213240176</v>
       </c>
       <c r="C152">
-        <v>0.25651159899999998</v>
+        <v>0.25699222100000002</v>
       </c>
       <c r="D152">
-        <v>0.234630808</v>
+        <v>0.235120997</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="B153">
-        <v>0.212137714</v>
+        <v>0.21268758199999999</v>
       </c>
       <c r="C153">
-        <v>0.25603294399999998</v>
+        <v>0.25651159899999998</v>
       </c>
       <c r="D153">
-        <v>0.23414273599999999</v>
+        <v>0.234630808</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="B154">
-        <v>0.211590677</v>
+        <v>0.212137714</v>
       </c>
       <c r="C154">
-        <v>0.25555640499999999</v>
+        <v>0.25603294399999998</v>
       </c>
       <c r="D154">
-        <v>0.23365691299999999</v>
+        <v>0.23414273599999999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.158</v>
+        <v>0.157</v>
       </c>
       <c r="B155">
-        <v>0.21104635299999999</v>
+        <v>0.211590677</v>
       </c>
       <c r="C155">
-        <v>0.25508177300000001</v>
+        <v>0.25555640499999999</v>
       </c>
       <c r="D155">
-        <v>0.23317328100000001</v>
+        <v>0.23365691299999999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="B156">
-        <v>0.21050474</v>
+        <v>0.21104635299999999</v>
       </c>
       <c r="C156">
-        <v>0.254609048</v>
+        <v>0.25508177300000001</v>
       </c>
       <c r="D156">
-        <v>0.23269173500000001</v>
+        <v>0.23317328100000001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="B157">
-        <v>0.209965765</v>
+        <v>0.21050474</v>
       </c>
       <c r="C157">
-        <v>0.25413838</v>
+        <v>0.254609048</v>
       </c>
       <c r="D157">
-        <v>0.23221235000000001</v>
+        <v>0.23269173500000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="B158">
-        <v>0.20942941300000001</v>
+        <v>0.209965765</v>
       </c>
       <c r="C158">
-        <v>0.25366952999999998</v>
+        <v>0.25413838</v>
       </c>
       <c r="D158">
-        <v>0.23173497600000001</v>
+        <v>0.23221235000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.16200000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="B159">
-        <v>0.208895624</v>
+        <v>0.20942941300000001</v>
       </c>
       <c r="C159">
-        <v>0.25320243799999997</v>
+        <v>0.25366952999999998</v>
       </c>
       <c r="D159">
-        <v>0.23125962899999999</v>
+        <v>0.23173497600000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.16300000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="B160">
-        <v>0.208364576</v>
+        <v>0.208895624</v>
       </c>
       <c r="C160">
-        <v>0.25273737299999999</v>
+        <v>0.25320243799999997</v>
       </c>
       <c r="D160">
-        <v>0.23078647299999999</v>
+        <v>0.23125962899999999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.16400000000000001</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="B161">
-        <v>0.20783591300000001</v>
+        <v>0.208364576</v>
       </c>
       <c r="C161">
-        <v>0.25227406600000002</v>
+        <v>0.25273737299999999</v>
       </c>
       <c r="D161">
-        <v>0.23031520799999999</v>
+        <v>0.23078647299999999</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.16500000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="B162">
-        <v>0.207309827</v>
+        <v>0.20783591300000001</v>
       </c>
       <c r="C162">
-        <v>0.25181251799999999</v>
+        <v>0.25227406600000002</v>
       </c>
       <c r="D162">
-        <v>0.22984589599999999</v>
+        <v>0.23031520799999999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.16600000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="B163">
-        <v>0.20678624500000001</v>
+        <v>0.207309827</v>
       </c>
       <c r="C163">
-        <v>0.25135275699999998</v>
+        <v>0.25181251799999999</v>
       </c>
       <c r="D163">
-        <v>0.22937859599999999</v>
+        <v>0.22984589599999999</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.16700000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="B164">
-        <v>0.206265226</v>
+        <v>0.20678624500000001</v>
       </c>
       <c r="C164">
-        <v>0.25089484499999998</v>
+        <v>0.25135275699999998</v>
       </c>
       <c r="D164">
-        <v>0.22891329199999999</v>
+        <v>0.22937859599999999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.16800000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="B165">
-        <v>0.20574642700000001</v>
+        <v>0.206265226</v>
       </c>
       <c r="C165">
-        <v>0.25043848200000002</v>
+        <v>0.25089484499999998</v>
       </c>
       <c r="D165">
-        <v>0.22844973199999999</v>
+        <v>0.22891329199999999</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.16900000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="B166">
-        <v>0.20523026599999999</v>
+        <v>0.20574642700000001</v>
       </c>
       <c r="C166">
-        <v>0.249984026</v>
+        <v>0.25043848200000002</v>
       </c>
       <c r="D166">
-        <v>0.227988303</v>
+        <v>0.22844973199999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.17</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="B167">
-        <v>0.20471642900000001</v>
+        <v>0.20523026599999999</v>
       </c>
       <c r="C167">
-        <v>0.24953119500000001</v>
+        <v>0.249984026</v>
       </c>
       <c r="D167">
-        <v>0.227528587</v>
+        <v>0.227988303</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.17100000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="B168">
-        <v>0.20420490199999999</v>
+        <v>0.20471642900000001</v>
       </c>
       <c r="C168">
-        <v>0.24908003200000001</v>
+        <v>0.24953119500000001</v>
       </c>
       <c r="D168">
-        <v>0.227070719</v>
+        <v>0.227528587</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.17199999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="B169">
-        <v>0.203695878</v>
+        <v>0.20420490199999999</v>
       </c>
       <c r="C169">
-        <v>0.248630658</v>
+        <v>0.24908003200000001</v>
       </c>
       <c r="D169">
-        <v>0.226614818</v>
+        <v>0.227070719</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.17299999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="B170">
-        <v>0.20318904500000001</v>
+        <v>0.203695878</v>
       </c>
       <c r="C170">
-        <v>0.24818272899999999</v>
+        <v>0.248630658</v>
       </c>
       <c r="D170">
-        <v>0.22616061600000001</v>
+        <v>0.226614818</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.17399999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="B171">
-        <v>0.20268465599999999</v>
+        <v>0.20318904500000001</v>
       </c>
       <c r="C171">
-        <v>0.24773663300000001</v>
+        <v>0.24818272899999999</v>
       </c>
       <c r="D171">
-        <v>0.22570836499999999</v>
+        <v>0.22616061600000001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.17499999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="B172">
-        <v>0.20218235300000001</v>
+        <v>0.20268465599999999</v>
       </c>
       <c r="C172">
-        <v>0.247291863</v>
+        <v>0.24773663300000001</v>
       </c>
       <c r="D172">
-        <v>0.22525763500000001</v>
+        <v>0.22570836499999999</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.17599999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="B173">
-        <v>0.20168253799999999</v>
+        <v>0.20218235300000001</v>
       </c>
       <c r="C173">
-        <v>0.24684898599999999</v>
+        <v>0.247291863</v>
       </c>
       <c r="D173">
-        <v>0.22480893099999999</v>
+        <v>0.22525763500000001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.17699999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="B174">
-        <v>0.20118477900000001</v>
+        <v>0.20168253799999999</v>
       </c>
       <c r="C174">
-        <v>0.246407494</v>
+        <v>0.24684898599999999</v>
       </c>
       <c r="D174">
-        <v>0.22436177700000001</v>
+        <v>0.22480893099999999</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.17799999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="B175">
-        <v>0.20068934599999999</v>
+        <v>0.20118477900000001</v>
       </c>
       <c r="C175">
-        <v>0.24596759700000001</v>
+        <v>0.246407494</v>
       </c>
       <c r="D175">
-        <v>0.22391644099999999</v>
+        <v>0.22436177700000001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.17899999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="B176">
-        <v>0.20019614699999999</v>
+        <v>0.20068934599999999</v>
       </c>
       <c r="C176">
-        <v>0.24552932399999999</v>
+        <v>0.24596759700000001</v>
       </c>
       <c r="D176">
-        <v>0.22341649199999999</v>
+        <v>0.22391644099999999</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.18</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="B177">
-        <v>0.19970495999999999</v>
+        <v>0.20019614699999999</v>
       </c>
       <c r="C177">
-        <v>0.245092377</v>
+        <v>0.24552932399999999</v>
       </c>
       <c r="D177">
-        <v>0.22290016700000001</v>
+        <v>0.22341649199999999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.18099999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="B178">
-        <v>0.19921599300000001</v>
+        <v>0.19970495999999999</v>
       </c>
       <c r="C178">
-        <v>0.24465699499999999</v>
+        <v>0.245092377</v>
       </c>
       <c r="D178">
-        <v>0.222386047</v>
+        <v>0.22290016700000001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.182</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="B179">
-        <v>0.19872917200000001</v>
+        <v>0.19921599300000001</v>
       </c>
       <c r="C179">
-        <v>0.24422311799999999</v>
+        <v>0.24465699499999999</v>
       </c>
       <c r="D179">
-        <v>0.221873924</v>
+        <v>0.222386047</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="B180">
-        <v>0.19824446700000001</v>
+        <v>0.19872917200000001</v>
       </c>
       <c r="C180">
-        <v>0.24379077599999999</v>
+        <v>0.24422311799999999</v>
       </c>
       <c r="D180">
-        <v>0.221363902</v>
+        <v>0.221873924</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="B181">
-        <v>0.19776184899999999</v>
+        <v>0.19824446700000001</v>
       </c>
       <c r="C181">
-        <v>0.243359774</v>
+        <v>0.24379077599999999</v>
       </c>
       <c r="D181">
-        <v>0.22085580199999999</v>
+        <v>0.221363902</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="B182">
-        <v>0.19728131600000001</v>
+        <v>0.19776184899999999</v>
       </c>
       <c r="C182">
-        <v>0.24293029299999999</v>
+        <v>0.243359774</v>
       </c>
       <c r="D182">
-        <v>0.220349774</v>
+        <v>0.22085580199999999</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="B183">
-        <v>0.19680280999999999</v>
+        <v>0.19728131600000001</v>
       </c>
       <c r="C183">
-        <v>0.242502153</v>
+        <v>0.24293029299999999</v>
       </c>
       <c r="D183">
-        <v>0.21984574200000001</v>
+        <v>0.220349774</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
       <c r="B184">
-        <v>0.19632640500000001</v>
+        <v>0.19680280999999999</v>
       </c>
       <c r="C184">
-        <v>0.24207547300000001</v>
+        <v>0.242502153</v>
       </c>
       <c r="D184">
-        <v>0.219343707</v>
+        <v>0.21984574200000001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="B185">
-        <v>0.19585198200000001</v>
+        <v>0.19632640500000001</v>
       </c>
       <c r="C185">
-        <v>0.241650268</v>
+        <v>0.24207547300000001</v>
       </c>
       <c r="D185">
-        <v>0.21884357900000001</v>
+        <v>0.219343707</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
       <c r="B186">
-        <v>0.19537955500000001</v>
+        <v>0.19585198200000001</v>
       </c>
       <c r="C186">
-        <v>0.241226315</v>
+        <v>0.241650268</v>
       </c>
       <c r="D186">
-        <v>0.21834540399999999</v>
+        <v>0.21884357900000001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="B187">
-        <v>0.19490912599999999</v>
+        <v>0.19537955500000001</v>
       </c>
       <c r="C187">
-        <v>0.24080374800000001</v>
+        <v>0.241226315</v>
       </c>
       <c r="D187">
-        <v>0.21784912000000001</v>
+        <v>0.21834540399999999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="B188">
-        <v>0.19444057300000001</v>
+        <v>0.19490912599999999</v>
       </c>
       <c r="C188">
-        <v>0.24038252199999999</v>
+        <v>0.24080374800000001</v>
       </c>
       <c r="D188">
-        <v>0.21735474499999999</v>
+        <v>0.21784912000000001</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="B189">
-        <v>0.193974063</v>
+        <v>0.19444057300000001</v>
       </c>
       <c r="C189">
-        <v>0.23996266699999999</v>
+        <v>0.24038252199999999</v>
       </c>
       <c r="D189">
-        <v>0.21686227599999999</v>
+        <v>0.21735474499999999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="B190">
-        <v>0.193509445</v>
+        <v>0.193974063</v>
       </c>
       <c r="C190">
-        <v>0.23954409400000001</v>
+        <v>0.23996266699999999</v>
       </c>
       <c r="D190">
-        <v>0.216371641</v>
+        <v>0.21686227599999999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.19400000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="B191">
-        <v>0.193046734</v>
+        <v>0.193509445</v>
       </c>
       <c r="C191">
-        <v>0.23912687599999999</v>
+        <v>0.23954409400000001</v>
       </c>
       <c r="D191">
-        <v>0.21588289699999999</v>
+        <v>0.216371641</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0.19500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="B192">
-        <v>0.19258588600000001</v>
+        <v>0.193046734</v>
       </c>
       <c r="C192">
-        <v>0.23871089500000001</v>
+        <v>0.23912687599999999</v>
       </c>
       <c r="D192">
-        <v>0.21539591299999999</v>
+        <v>0.21588289699999999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.19600000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="B193">
-        <v>0.19212701900000001</v>
+        <v>0.19258588600000001</v>
       </c>
       <c r="C193">
-        <v>0.23829633</v>
+        <v>0.23871089500000001</v>
       </c>
       <c r="D193">
-        <v>0.21491086500000001</v>
+        <v>0.21539591299999999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.19700000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="B194">
-        <v>0.19166988099999999</v>
+        <v>0.19212701900000001</v>
       </c>
       <c r="C194">
-        <v>0.237882867</v>
+        <v>0.23829633</v>
       </c>
       <c r="D194">
-        <v>0.214427546</v>
+        <v>0.21491086500000001</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.19800000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="B195">
-        <v>0.19121465100000001</v>
+        <v>0.19166988099999999</v>
       </c>
       <c r="C195">
-        <v>0.23747074600000001</v>
+        <v>0.237882867</v>
       </c>
       <c r="D195">
-        <v>0.21394601499999999</v>
+        <v>0.214427546</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.19900000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="B196">
-        <v>0.19076126800000001</v>
+        <v>0.19121465100000001</v>
       </c>
       <c r="C196">
-        <v>0.237059876</v>
+        <v>0.23747074600000001</v>
       </c>
       <c r="D196">
-        <v>0.21346631599999999</v>
+        <v>0.21394601499999999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.2</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="B197">
-        <v>0.19030962900000001</v>
+        <v>0.19076126800000001</v>
       </c>
       <c r="C197">
-        <v>0.23665016899999999</v>
+        <v>0.237059876</v>
       </c>
       <c r="D197">
-        <v>0.21298830199999999</v>
+        <v>0.21346631599999999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.20100000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="B198">
-        <v>0.189617023</v>
+        <v>0.19030962900000001</v>
       </c>
       <c r="C198">
-        <v>0.23593367600000001</v>
+        <v>0.23665016899999999</v>
       </c>
       <c r="D198">
-        <v>0.212240294</v>
+        <v>0.21298830199999999</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.20200000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="B199">
-        <v>0.18892896200000001</v>
+        <v>0.189617023</v>
       </c>
       <c r="C199">
-        <v>0.23522149000000001</v>
+        <v>0.23593367600000001</v>
       </c>
       <c r="D199">
-        <v>0.21149702400000001</v>
+        <v>0.212240294</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.20300000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="B200">
-        <v>0.18824546</v>
+        <v>0.18892896200000001</v>
       </c>
       <c r="C200">
-        <v>0.23451356600000001</v>
+        <v>0.23522149000000001</v>
       </c>
       <c r="D200">
-        <v>0.210758582</v>
+        <v>0.21149702400000001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.20399999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="B201">
-        <v>0.18756637000000001</v>
+        <v>0.18824546</v>
       </c>
       <c r="C201">
-        <v>0.23380990300000001</v>
+        <v>0.23451356600000001</v>
       </c>
       <c r="D201">
-        <v>0.21002474400000001</v>
+        <v>0.210758582</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.20499999999999999</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="B202">
-        <v>0.18689175</v>
+        <v>0.18756637000000001</v>
       </c>
       <c r="C202">
-        <v>0.23311047300000001</v>
+        <v>0.23380990300000001</v>
       </c>
       <c r="D202">
-        <v>0.20929558600000001</v>
+        <v>0.21002474400000001</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.20599999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="B203">
-        <v>0.186221585</v>
+        <v>0.18689175</v>
       </c>
       <c r="C203">
-        <v>0.232415229</v>
+        <v>0.23311047300000001</v>
       </c>
       <c r="D203">
-        <v>0.20857109099999999</v>
+        <v>0.20929558600000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.20699999999999999</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="B204">
-        <v>0.185555622</v>
+        <v>0.186221585</v>
       </c>
       <c r="C204">
-        <v>0.23172399399999999</v>
+        <v>0.232415229</v>
       </c>
       <c r="D204">
-        <v>0.207851022</v>
+        <v>0.20857109099999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.20799999999999999</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="B205">
-        <v>0.18489406999999999</v>
+        <v>0.185555622</v>
       </c>
       <c r="C205">
-        <v>0.23103691600000001</v>
+        <v>0.23172399399999999</v>
       </c>
       <c r="D205">
-        <v>0.20713557299999999</v>
+        <v>0.207851022</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.20899999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="B206">
-        <v>0.18423661599999999</v>
+        <v>0.18489406999999999</v>
       </c>
       <c r="C206">
-        <v>0.230353743</v>
+        <v>0.23103691600000001</v>
       </c>
       <c r="D206">
-        <v>0.20642440000000001</v>
+        <v>0.20713557299999999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.21</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="B207">
-        <v>0.18358348299999999</v>
+        <v>0.18423661599999999</v>
       </c>
       <c r="C207">
-        <v>0.22967463699999999</v>
+        <v>0.230353743</v>
       </c>
       <c r="D207">
-        <v>0.20571778700000001</v>
+        <v>0.20642440000000001</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0.21099999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="B208">
-        <v>0.18293441799999999</v>
+        <v>0.18358348299999999</v>
       </c>
       <c r="C208">
-        <v>0.228999436</v>
+        <v>0.22967463699999999</v>
       </c>
       <c r="D208">
-        <v>0.20501545099999999</v>
+        <v>0.20571778700000001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.21199999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="B209">
-        <v>0.182289585</v>
+        <v>0.18293441799999999</v>
       </c>
       <c r="C209">
-        <v>0.22832822799999999</v>
+        <v>0.228999436</v>
       </c>
       <c r="D209">
-        <v>0.20431753999999999</v>
+        <v>0.20501545099999999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.21299999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="B210">
-        <v>0.181648642</v>
+        <v>0.182289585</v>
       </c>
       <c r="C210">
-        <v>0.22766067100000001</v>
+        <v>0.22832822799999999</v>
       </c>
       <c r="D210">
-        <v>0.203623727</v>
+        <v>0.20431753999999999</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.214</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="B211">
-        <v>0.18101181099999999</v>
+        <v>0.181648642</v>
       </c>
       <c r="C211">
-        <v>0.22699707699999999</v>
+        <v>0.22766067100000001</v>
       </c>
       <c r="D211">
-        <v>0.20293420600000001</v>
+        <v>0.203623727</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="B212">
-        <v>0.18037888399999999</v>
+        <v>0.18101181099999999</v>
       </c>
       <c r="C212">
-        <v>0.226337075</v>
+        <v>0.22699707699999999</v>
       </c>
       <c r="D212">
-        <v>0.202248812</v>
+        <v>0.20293420600000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="B213">
-        <v>0.179749936</v>
+        <v>0.18037888399999999</v>
       </c>
       <c r="C213">
-        <v>0.22568091800000001</v>
+        <v>0.226337075</v>
       </c>
       <c r="D213">
-        <v>0.201567575</v>
+        <v>0.202248812</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="B214">
-        <v>0.17912481699999999</v>
+        <v>0.179749936</v>
       </c>
       <c r="C214">
-        <v>0.22502839599999999</v>
+        <v>0.22568091800000001</v>
       </c>
       <c r="D214">
-        <v>0.20089036199999999</v>
+        <v>0.201567575</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.218</v>
+        <v>0.217</v>
       </c>
       <c r="B215">
-        <v>0.178503722</v>
+        <v>0.17912481699999999</v>
       </c>
       <c r="C215">
-        <v>0.22437965900000001</v>
+        <v>0.22502839599999999</v>
       </c>
       <c r="D215">
-        <v>0.20021741100000001</v>
+        <v>0.20089036199999999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
       <c r="B216">
-        <v>0.17788621800000001</v>
+        <v>0.178503722</v>
       </c>
       <c r="C216">
-        <v>0.22373433400000001</v>
+        <v>0.22437965900000001</v>
       </c>
       <c r="D216">
-        <v>0.19954820000000001</v>
+        <v>0.20021741100000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.22</v>
+        <v>0.219</v>
       </c>
       <c r="B217">
-        <v>0.17727257299999999</v>
+        <v>0.17788621800000001</v>
       </c>
       <c r="C217">
-        <v>0.22309264500000001</v>
+        <v>0.22373433400000001</v>
       </c>
       <c r="D217">
-        <v>0.19888308599999999</v>
+        <v>0.19954820000000001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="B218">
-        <v>0.17666257899999999</v>
+        <v>0.17727257299999999</v>
       </c>
       <c r="C218">
-        <v>0.222454444</v>
+        <v>0.22309264500000001</v>
       </c>
       <c r="D218">
-        <v>0.19822178800000001</v>
+        <v>0.19888308599999999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="B219">
-        <v>0.1760564</v>
+        <v>0.17666257899999999</v>
       </c>
       <c r="C219">
-        <v>0.221819878</v>
+        <v>0.222454444</v>
       </c>
       <c r="D219">
-        <v>0.19756448300000001</v>
+        <v>0.19822178800000001</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="B220">
-        <v>0.17545381199999999</v>
+        <v>0.1760564</v>
       </c>
       <c r="C220">
-        <v>0.22118869399999999</v>
+        <v>0.221819878</v>
       </c>
       <c r="D220">
-        <v>0.19691097699999999</v>
+        <v>0.19756448300000001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="B221">
-        <v>0.17485476999999999</v>
+        <v>0.17545381199999999</v>
       </c>
       <c r="C221">
-        <v>0.220560804</v>
+        <v>0.22118869399999999</v>
       </c>
       <c r="D221">
-        <v>0.19626116800000001</v>
+        <v>0.19691097699999999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.22500000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="B222">
-        <v>0.174259365</v>
+        <v>0.17485476999999999</v>
       </c>
       <c r="C222">
-        <v>0.219936401</v>
+        <v>0.220560804</v>
       </c>
       <c r="D222">
-        <v>0.19561521700000001</v>
+        <v>0.19626116800000001</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.22600000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B223">
-        <v>0.173667505</v>
+        <v>0.174259365</v>
       </c>
       <c r="C223">
-        <v>0.21931540999999999</v>
+        <v>0.219936401</v>
       </c>
       <c r="D223">
-        <v>0.19497299200000001</v>
+        <v>0.19561521700000001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.22700000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="B224">
-        <v>0.17307908799999999</v>
+        <v>0.173667505</v>
       </c>
       <c r="C224">
-        <v>0.21869760799999999</v>
+        <v>0.21931540999999999</v>
       </c>
       <c r="D224">
-        <v>0.194334373</v>
+        <v>0.19497299200000001</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.22800000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="B225">
-        <v>0.172494218</v>
+        <v>0.17307908799999999</v>
       </c>
       <c r="C225">
-        <v>0.218083203</v>
+        <v>0.21869760799999999</v>
       </c>
       <c r="D225">
-        <v>0.19369952400000001</v>
+        <v>0.194334373</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.22900000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="B226">
-        <v>0.171912655</v>
+        <v>0.172494218</v>
       </c>
       <c r="C226">
-        <v>0.217471898</v>
+        <v>0.218083203</v>
       </c>
       <c r="D226">
-        <v>0.19306811700000001</v>
+        <v>0.19369952400000001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.23</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="B227">
-        <v>0.17133457999999999</v>
+        <v>0.171912655</v>
       </c>
       <c r="C227">
-        <v>0.21686393000000001</v>
+        <v>0.217471898</v>
       </c>
       <c r="D227">
-        <v>0.19244042</v>
+        <v>0.19306811700000001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.23100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="B228">
-        <v>0.170759931</v>
+        <v>0.17133457999999999</v>
       </c>
       <c r="C228">
-        <v>0.21625918099999999</v>
+        <v>0.21686393000000001</v>
       </c>
       <c r="D228">
-        <v>0.19181633000000001</v>
+        <v>0.19244042</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.23200000000000001</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="B229">
-        <v>0.17018851600000001</v>
+        <v>0.170759931</v>
       </c>
       <c r="C229">
-        <v>0.21565753200000001</v>
+        <v>0.21625918099999999</v>
       </c>
       <c r="D229">
-        <v>0.19119560699999999</v>
+        <v>0.19181633000000001</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.23300000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="B230">
-        <v>0.16962042499999999</v>
+        <v>0.17018851600000001</v>
       </c>
       <c r="C230">
-        <v>0.215058997</v>
+        <v>0.21565753200000001</v>
       </c>
       <c r="D230">
-        <v>0.19057840100000001</v>
+        <v>0.19119560699999999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.23400000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="B231">
-        <v>0.16905556599999999</v>
+        <v>0.16962042499999999</v>
       </c>
       <c r="C231">
-        <v>0.21446351699999999</v>
+        <v>0.215058997</v>
       </c>
       <c r="D231">
-        <v>0.189964622</v>
+        <v>0.19057840100000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.23499999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="B232">
-        <v>0.16849398600000001</v>
+        <v>0.16905556599999999</v>
       </c>
       <c r="C232">
-        <v>0.21387118099999999</v>
+        <v>0.21446351699999999</v>
       </c>
       <c r="D232">
-        <v>0.18935428600000001</v>
+        <v>0.189964622</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.23599999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="B233">
-        <v>0.16793554999999999</v>
+        <v>0.16849398600000001</v>
       </c>
       <c r="C233">
-        <v>0.213281736</v>
+        <v>0.21387118099999999</v>
       </c>
       <c r="D233">
-        <v>0.18874724200000001</v>
+        <v>0.18935428600000001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.23699999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="B234">
-        <v>0.16738034800000001</v>
+        <v>0.16793554999999999</v>
       </c>
       <c r="C234">
-        <v>0.212695464</v>
+        <v>0.213281736</v>
       </c>
       <c r="D234">
-        <v>0.18814362600000001</v>
+        <v>0.18874724200000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0.23799999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="B235">
-        <v>0.166828215</v>
+        <v>0.16738034800000001</v>
       </c>
       <c r="C235">
-        <v>0.21211205399999999</v>
+        <v>0.212695464</v>
       </c>
       <c r="D235">
-        <v>0.18754325799999999</v>
+        <v>0.18814362600000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>0.23899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="B236">
-        <v>0.16627927100000001</v>
+        <v>0.166828215</v>
       </c>
       <c r="C236">
-        <v>0.21153165400000001</v>
+        <v>0.21211205399999999</v>
       </c>
       <c r="D236">
-        <v>0.18694622799999999</v>
+        <v>0.18754325799999999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.24</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="B237">
-        <v>0.165733308</v>
+        <v>0.16627927100000001</v>
       </c>
       <c r="C237">
-        <v>0.210954115</v>
+        <v>0.21153165400000001</v>
       </c>
       <c r="D237">
-        <v>0.18635241699999999</v>
+        <v>0.18694622799999999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.24099999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="B238">
-        <v>0.165190488</v>
+        <v>0.165733308</v>
       </c>
       <c r="C238">
-        <v>0.210379556</v>
+        <v>0.210954115</v>
       </c>
       <c r="D238">
-        <v>0.185761854</v>
+        <v>0.18635241699999999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>0.24199999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="B239">
-        <v>0.16465060400000001</v>
+        <v>0.165190488</v>
       </c>
       <c r="C239">
-        <v>0.20980770900000001</v>
+        <v>0.210379556</v>
       </c>
       <c r="D239">
-        <v>0.18517440600000001</v>
+        <v>0.185761854</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>0.24299999999999999</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="B240">
-        <v>0.16411377499999999</v>
+        <v>0.16465060400000001</v>
       </c>
       <c r="C240">
-        <v>0.209238797</v>
+        <v>0.20980770900000001</v>
       </c>
       <c r="D240">
-        <v>0.184590161</v>
+        <v>0.18517440600000001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.24399999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="B241">
-        <v>0.16357983600000001</v>
+        <v>0.16411377499999999</v>
       </c>
       <c r="C241">
-        <v>0.20867258299999999</v>
+        <v>0.209238797</v>
       </c>
       <c r="D241">
-        <v>0.18400898600000001</v>
+        <v>0.184590161</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.245</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="B242">
-        <v>0.16304886299999999</v>
+        <v>0.16357983600000001</v>
       </c>
       <c r="C242">
-        <v>0.20810921499999999</v>
+        <v>0.20867258299999999</v>
       </c>
       <c r="D242">
-        <v>0.18343092499999999</v>
+        <v>0.18400898600000001</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.246</v>
+        <v>0.245</v>
       </c>
       <c r="B243">
-        <v>0.16252087100000001</v>
+        <v>0.16304886299999999</v>
       </c>
       <c r="C243">
-        <v>0.207548648</v>
+        <v>0.20810921499999999</v>
       </c>
       <c r="D243">
-        <v>0.18285600799999999</v>
+        <v>0.18343092499999999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="B244">
-        <v>0.161995679</v>
+        <v>0.16252087100000001</v>
       </c>
       <c r="C244">
-        <v>0.20699076399999999</v>
+        <v>0.207548648</v>
       </c>
       <c r="D244">
-        <v>0.18228407199999999</v>
+        <v>0.18285600799999999</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="B245">
-        <v>0.16147340800000001</v>
+        <v>0.161995679</v>
       </c>
       <c r="C245">
-        <v>0.20643568000000001</v>
+        <v>0.20699076399999999</v>
       </c>
       <c r="D245">
-        <v>0.18171522000000001</v>
+        <v>0.18228407199999999</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
       <c r="B246">
-        <v>0.16095387899999999</v>
+        <v>0.16147340800000001</v>
       </c>
       <c r="C246">
-        <v>0.20588316000000001</v>
+        <v>0.20643568000000001</v>
       </c>
       <c r="D246">
-        <v>0.18114925900000001</v>
+        <v>0.18171522000000001</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="B247">
-        <v>0.16043724100000001</v>
+        <v>0.16095387899999999</v>
       </c>
       <c r="C247">
-        <v>0.205333352</v>
+        <v>0.20588316000000001</v>
       </c>
       <c r="D247">
-        <v>0.18058633800000001</v>
+        <v>0.18114925900000001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="B248">
-        <v>0.15975362100000001</v>
+        <v>0.16043724100000001</v>
       </c>
       <c r="C248">
-        <v>0.20456078599999999</v>
+        <v>0.205333352</v>
       </c>
       <c r="D248">
-        <v>0.179835305</v>
+        <v>0.18058633800000001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.252</v>
+        <v>0.251</v>
       </c>
       <c r="B249">
-        <v>0.159074783</v>
+        <v>0.15975362100000001</v>
       </c>
       <c r="C249">
-        <v>0.20379313800000001</v>
+        <v>0.20456078599999999</v>
       </c>
       <c r="D249">
-        <v>0.17908939700000001</v>
+        <v>0.179835305</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.253</v>
+        <v>0.252</v>
       </c>
       <c r="B250">
-        <v>0.15840090800000001</v>
+        <v>0.159074783</v>
       </c>
       <c r="C250">
-        <v>0.20303081000000001</v>
+        <v>0.20379313800000001</v>
       </c>
       <c r="D250">
-        <v>0.17834882399999999</v>
+        <v>0.17908939700000001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.254</v>
+        <v>0.253</v>
       </c>
       <c r="B251">
-        <v>0.15773168200000001</v>
+        <v>0.15840090800000001</v>
       </c>
       <c r="C251">
-        <v>0.202273384</v>
+        <v>0.20303081000000001</v>
       </c>
       <c r="D251">
-        <v>0.177613303</v>
+        <v>0.17834882399999999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.255</v>
+        <v>0.254</v>
       </c>
       <c r="B252">
-        <v>0.15706720900000001</v>
+        <v>0.15773168200000001</v>
       </c>
       <c r="C252">
-        <v>0.201520965</v>
+        <v>0.202273384</v>
       </c>
       <c r="D252">
-        <v>0.176882923</v>
+        <v>0.177613303</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.25600000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="B253">
-        <v>0.156407297</v>
+        <v>0.15706720900000001</v>
       </c>
       <c r="C253">
-        <v>0.20077334299999999</v>
+        <v>0.201520965</v>
       </c>
       <c r="D253">
-        <v>0.17615741500000001</v>
+        <v>0.176882923</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.25700000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="B254">
-        <v>0.155752063</v>
+        <v>0.156407297</v>
       </c>
       <c r="C254">
-        <v>0.200030655</v>
+        <v>0.20077334299999999</v>
       </c>
       <c r="D254">
-        <v>0.175436974</v>
+        <v>0.17615741500000001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.25800000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="B255">
-        <v>0.15510143300000001</v>
+        <v>0.155752063</v>
       </c>
       <c r="C255">
-        <v>0.19929285299999999</v>
+        <v>0.200030655</v>
       </c>
       <c r="D255">
-        <v>0.17472153900000001</v>
+        <v>0.175436974</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.25900000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="B256">
-        <v>0.15445524499999999</v>
+        <v>0.15510143300000001</v>
       </c>
       <c r="C256">
-        <v>0.19855979100000001</v>
+        <v>0.19929285299999999</v>
       </c>
       <c r="D256">
-        <v>0.174010888</v>
+        <v>0.17472153900000001</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0.26</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="B257">
-        <v>0.15381352600000001</v>
+        <v>0.15445524499999999</v>
       </c>
       <c r="C257">
-        <v>0.19783145199999999</v>
+        <v>0.19855979100000001</v>
       </c>
       <c r="D257">
-        <v>0.173305035</v>
+        <v>0.174010888</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.26100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="B258">
-        <v>0.15317624799999999</v>
+        <v>0.15381352600000001</v>
       </c>
       <c r="C258">
-        <v>0.19710773200000001</v>
+        <v>0.19783145199999999</v>
       </c>
       <c r="D258">
-        <v>0.17260399500000001</v>
+        <v>0.173305035</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0.26200000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="B259">
-        <v>0.15254330599999999</v>
+        <v>0.15317624799999999</v>
       </c>
       <c r="C259">
-        <v>0.196388647</v>
+        <v>0.19710773200000001</v>
       </c>
       <c r="D259">
-        <v>0.171907648</v>
+        <v>0.17260399500000001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>0.26300000000000001</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="B260">
-        <v>0.15191465600000001</v>
+        <v>0.15254330599999999</v>
       </c>
       <c r="C260">
-        <v>0.19567410599999999</v>
+        <v>0.196388647</v>
       </c>
       <c r="D260">
-        <v>0.17121593700000001</v>
+        <v>0.171907648</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>0.26400000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="B261">
-        <v>0.151290327</v>
+        <v>0.15191465600000001</v>
       </c>
       <c r="C261">
-        <v>0.194964111</v>
+        <v>0.19567410599999999</v>
       </c>
       <c r="D261">
-        <v>0.170528874</v>
+        <v>0.17121593700000001</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>0.26500000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="B262">
-        <v>0.15067026</v>
+        <v>0.151290327</v>
       </c>
       <c r="C262">
-        <v>0.19425866</v>
+        <v>0.194964111</v>
       </c>
       <c r="D262">
-        <v>0.169846416</v>
+        <v>0.170528874</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>0.26600000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="B263">
-        <v>0.15005433600000001</v>
+        <v>0.15067026</v>
       </c>
       <c r="C263">
-        <v>0.19355759</v>
+        <v>0.19425866</v>
       </c>
       <c r="D263">
-        <v>0.16916845699999999</v>
+        <v>0.169846416</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>0.26700000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="B264">
-        <v>0.14944255400000001</v>
+        <v>0.15005433600000001</v>
       </c>
       <c r="C264">
-        <v>0.19286093100000001</v>
+        <v>0.19355759</v>
       </c>
       <c r="D264">
-        <v>0.16849498500000001</v>
+        <v>0.16916845699999999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>0.26800000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="B265">
-        <v>0.148834929</v>
+        <v>0.14944255400000001</v>
       </c>
       <c r="C265">
-        <v>0.192168638</v>
+        <v>0.19286093100000001</v>
       </c>
       <c r="D265">
-        <v>0.16782596699999999</v>
+        <v>0.16849498500000001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.26900000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="B266">
-        <v>0.148231313</v>
+        <v>0.148834929</v>
       </c>
       <c r="C266">
-        <v>0.19148057700000001</v>
+        <v>0.192168638</v>
       </c>
       <c r="D266">
-        <v>0.16716130100000001</v>
+        <v>0.16782596699999999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>0.27</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="B267">
-        <v>0.14763169000000001</v>
+        <v>0.148231313</v>
       </c>
       <c r="C267">
-        <v>0.19079674799999999</v>
+        <v>0.19148057700000001</v>
       </c>
       <c r="D267">
-        <v>0.166500971</v>
+        <v>0.16716130100000001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.27100000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="B268">
-        <v>0.14703609000000001</v>
+        <v>0.14763169000000001</v>
       </c>
       <c r="C268">
-        <v>0.19011729999999999</v>
+        <v>0.19079674799999999</v>
       </c>
       <c r="D268">
-        <v>0.165844977</v>
+        <v>0.166500971</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.27200000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="B269">
-        <v>0.14644442499999999</v>
+        <v>0.14703609000000001</v>
       </c>
       <c r="C269">
-        <v>0.18944187500000001</v>
+        <v>0.19011729999999999</v>
       </c>
       <c r="D269">
-        <v>0.165193215</v>
+        <v>0.165844977</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.27300000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="B270">
-        <v>0.145856708</v>
+        <v>0.14644442499999999</v>
       </c>
       <c r="C270">
-        <v>0.18877074099999999</v>
+        <v>0.18944187500000001</v>
       </c>
       <c r="D270">
-        <v>0.16454574499999999</v>
+        <v>0.165193215</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.27400000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="B271">
-        <v>0.14527279100000001</v>
+        <v>0.145856708</v>
       </c>
       <c r="C271">
-        <v>0.18810360100000001</v>
+        <v>0.18877074099999999</v>
       </c>
       <c r="D271">
-        <v>0.16390238700000001</v>
+        <v>0.16454574499999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.27500000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="B272">
-        <v>0.14469267399999999</v>
+        <v>0.14527279100000001</v>
       </c>
       <c r="C272">
-        <v>0.187409252</v>
+        <v>0.18810360100000001</v>
       </c>
       <c r="D272">
-        <v>0.16326312700000001</v>
+        <v>0.16390238700000001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.27600000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="B273">
-        <v>0.144116417</v>
+        <v>0.14469267399999999</v>
       </c>
       <c r="C273">
-        <v>0.18670009100000001</v>
+        <v>0.187409252</v>
       </c>
       <c r="D273">
-        <v>0.16262804</v>
+        <v>0.16326312700000001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.27700000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="B274">
-        <v>0.14354383900000001</v>
+        <v>0.144116417</v>
       </c>
       <c r="C274">
-        <v>0.18599532499999999</v>
+        <v>0.18670009100000001</v>
       </c>
       <c r="D274">
-        <v>0.161996946</v>
+        <v>0.16262804</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.27800000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="B275">
-        <v>0.142975032</v>
+        <v>0.14354383900000001</v>
       </c>
       <c r="C275">
-        <v>0.185294971</v>
+        <v>0.18599532499999999</v>
       </c>
       <c r="D275">
-        <v>0.16136993499999999</v>
+        <v>0.161996946</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.27900000000000003</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="B276">
-        <v>0.142409861</v>
+        <v>0.142975032</v>
       </c>
       <c r="C276">
-        <v>0.18459893799999999</v>
+        <v>0.185294971</v>
       </c>
       <c r="D276">
-        <v>0.16074687200000001</v>
+        <v>0.16136993499999999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.28000000000000003</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="B277">
-        <v>0.14184829600000001</v>
+        <v>0.142409861</v>
       </c>
       <c r="C277">
-        <v>0.183907181</v>
+        <v>0.18459893799999999</v>
       </c>
       <c r="D277">
-        <v>0.16012769900000001</v>
+        <v>0.16074687200000001</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.28100000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B278">
-        <v>0.14129035200000001</v>
+        <v>0.14184829600000001</v>
       </c>
       <c r="C278">
-        <v>0.18321970100000001</v>
+        <v>0.183907181</v>
       </c>
       <c r="D278">
-        <v>0.15951245999999999</v>
+        <v>0.16012769900000001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.28199999999999997</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="B279">
-        <v>0.14073596899999999</v>
+        <v>0.14129035200000001</v>
       </c>
       <c r="C279">
-        <v>0.182536438</v>
+        <v>0.18321970100000001</v>
       </c>
       <c r="D279">
-        <v>0.15890105099999999</v>
+        <v>0.15951245999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0.28299999999999997</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="B280">
-        <v>0.14018519199999999</v>
+        <v>0.14073596899999999</v>
       </c>
       <c r="C280">
-        <v>0.181857452</v>
+        <v>0.182536438</v>
       </c>
       <c r="D280">
-        <v>0.15829352999999999</v>
+        <v>0.15890105099999999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0.28399999999999997</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="B281">
-        <v>0.139637873</v>
+        <v>0.14018519199999999</v>
       </c>
       <c r="C281">
-        <v>0.18118253400000001</v>
+        <v>0.181857452</v>
       </c>
       <c r="D281">
-        <v>0.15768979499999999</v>
+        <v>0.15829352999999999</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0.28499999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="B282">
-        <v>0.13909394999999999</v>
+        <v>0.139637873</v>
       </c>
       <c r="C282">
-        <v>0.18051162400000001</v>
+        <v>0.18118253400000001</v>
       </c>
       <c r="D282">
-        <v>0.15708970999999999</v>
+        <v>0.15768979499999999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0.28599999999999998</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="B283">
-        <v>0.13855353000000001</v>
+        <v>0.13909394999999999</v>
       </c>
       <c r="C283">
-        <v>0.17984493100000001</v>
+        <v>0.18051162400000001</v>
       </c>
       <c r="D283">
-        <v>0.156493455</v>
+        <v>0.15708970999999999</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>0.28699999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="B284">
-        <v>0.13801653699999999</v>
+        <v>0.13855353000000001</v>
       </c>
       <c r="C284">
-        <v>0.17918224599999999</v>
+        <v>0.17984493100000001</v>
       </c>
       <c r="D284">
-        <v>0.155900866</v>
+        <v>0.156493455</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0.28799999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="B285">
-        <v>0.137482822</v>
+        <v>0.13801653699999999</v>
       </c>
       <c r="C285">
-        <v>0.17852346599999999</v>
+        <v>0.17918224599999999</v>
       </c>
       <c r="D285">
-        <v>0.15531183800000001</v>
+        <v>0.155900866</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>0.28899999999999998</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="B286">
-        <v>0.13695247499999999</v>
+        <v>0.137482822</v>
       </c>
       <c r="C286">
-        <v>0.17786870900000001</v>
+        <v>0.17852346599999999</v>
       </c>
       <c r="D286">
-        <v>0.15472648999999999</v>
+        <v>0.15531183800000001</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>0.28999999999999998</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="B287">
-        <v>0.13642547999999999</v>
+        <v>0.13695247499999999</v>
       </c>
       <c r="C287">
-        <v>0.17721788599999999</v>
+        <v>0.17786870900000001</v>
       </c>
       <c r="D287">
-        <v>0.15414477900000001</v>
+        <v>0.15472648999999999</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>0.29099999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B288">
-        <v>0.135901675</v>
+        <v>0.13642547999999999</v>
       </c>
       <c r="C288">
-        <v>0.176570848</v>
+        <v>0.17721788599999999</v>
       </c>
       <c r="D288">
-        <v>0.15356648000000001</v>
+        <v>0.15414477900000001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>0.29199999999999998</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="B289">
-        <v>0.135381162</v>
+        <v>0.135901675</v>
       </c>
       <c r="C289">
-        <v>0.17592772800000001</v>
+        <v>0.176570848</v>
       </c>
       <c r="D289">
-        <v>0.15299175700000001</v>
+        <v>0.15356648000000001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>0.29299999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="B290">
-        <v>0.13486385300000001</v>
+        <v>0.135381162</v>
       </c>
       <c r="C290">
-        <v>0.17528843899999999</v>
+        <v>0.17592772800000001</v>
       </c>
       <c r="D290">
-        <v>0.152420536</v>
+        <v>0.15299175700000001</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>0.29399999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="B291">
-        <v>0.13434970399999999</v>
+        <v>0.13486385300000001</v>
       </c>
       <c r="C291">
-        <v>0.17465285999999999</v>
+        <v>0.17528843899999999</v>
       </c>
       <c r="D291">
-        <v>0.15185269700000001</v>
+        <v>0.152420536</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>0.29499999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="B292">
-        <v>0.133838713</v>
+        <v>0.13434970399999999</v>
       </c>
       <c r="C292">
-        <v>0.174021065</v>
+        <v>0.17465285999999999</v>
       </c>
       <c r="D292">
-        <v>0.15128834499999999</v>
+        <v>0.15185269700000001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.29599999999999999</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="B293">
-        <v>0.13333082199999999</v>
+        <v>0.133838713</v>
       </c>
       <c r="C293">
-        <v>0.17339295099999999</v>
+        <v>0.174021065</v>
       </c>
       <c r="D293">
-        <v>0.15072733199999999</v>
+        <v>0.15128834499999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>0.29699999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="B294">
-        <v>0.132826045</v>
+        <v>0.13333082199999999</v>
       </c>
       <c r="C294">
-        <v>0.17276850299999999</v>
+        <v>0.17339295099999999</v>
       </c>
       <c r="D294">
-        <v>0.150169685</v>
+        <v>0.15072733199999999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>0.29799999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="B295">
-        <v>0.13232432299999999</v>
+        <v>0.132826045</v>
       </c>
       <c r="C295">
-        <v>0.17214770600000001</v>
+        <v>0.17276850299999999</v>
       </c>
       <c r="D295">
-        <v>0.14961534700000001</v>
+        <v>0.150169685</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>0.29899999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="B296">
-        <v>0.13182567100000001</v>
+        <v>0.13232432299999999</v>
       </c>
       <c r="C296">
-        <v>0.17153052999999999</v>
+        <v>0.17214770600000001</v>
       </c>
       <c r="D296">
-        <v>0.149064317</v>
+        <v>0.14961534700000001</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>0.3</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="B297">
-        <v>0.13132992399999999</v>
+        <v>0.13182567100000001</v>
       </c>
       <c r="C297">
-        <v>0.17091687</v>
+        <v>0.17153052999999999</v>
       </c>
       <c r="D297">
-        <v>0.14851650599999999</v>
+        <v>0.149064317</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>0.30099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="B298">
-        <v>0.130834758</v>
+        <v>0.13132992399999999</v>
       </c>
       <c r="C298">
-        <v>0.170303598</v>
+        <v>0.17091687</v>
       </c>
       <c r="D298">
-        <v>0.14796915699999999</v>
+        <v>0.14851650599999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>0.30199999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="B299">
-        <v>0.130342707</v>
+        <v>0.130834758</v>
       </c>
       <c r="C299">
-        <v>0.16969409599999999</v>
+        <v>0.170303598</v>
       </c>
       <c r="D299">
-        <v>0.147425219</v>
+        <v>0.14796915699999999</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>0.30299999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="B300">
-        <v>0.129853681</v>
+        <v>0.130342707</v>
       </c>
       <c r="C300">
-        <v>0.169088185</v>
+        <v>0.16969409599999999</v>
       </c>
       <c r="D300">
-        <v>0.14688457499999999</v>
+        <v>0.147425219</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0.30399999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="B301">
-        <v>0.12936778400000001</v>
+        <v>0.129853681</v>
       </c>
       <c r="C301">
-        <v>0.168485999</v>
+        <v>0.169088185</v>
       </c>
       <c r="D301">
-        <v>0.146347329</v>
+        <v>0.14688457499999999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>0.30499999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="B302">
-        <v>0.12888486699999999</v>
+        <v>0.12936778400000001</v>
       </c>
       <c r="C302">
-        <v>0.16788746399999999</v>
+        <v>0.168485999</v>
       </c>
       <c r="D302">
-        <v>0.145813361</v>
+        <v>0.146347329</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>0.30599999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="B303">
-        <v>0.12840510899999999</v>
+        <v>0.12888486699999999</v>
       </c>
       <c r="C303">
-        <v>0.167292625</v>
+        <v>0.16788746399999999</v>
       </c>
       <c r="D303">
-        <v>0.14528282000000001</v>
+        <v>0.145813361</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>0.307</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="B304">
-        <v>0.12792822700000001</v>
+        <v>0.12840510899999999</v>
       </c>
       <c r="C304">
-        <v>0.166701242</v>
+        <v>0.167292625</v>
       </c>
       <c r="D304">
-        <v>0.14475537799999999</v>
+        <v>0.14528282000000001</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>0.308</v>
+        <v>0.307</v>
       </c>
       <c r="B305">
-        <v>0.1274544</v>
+        <v>0.12792822700000001</v>
       </c>
       <c r="C305">
-        <v>0.166113541</v>
+        <v>0.166701242</v>
       </c>
       <c r="D305">
-        <v>0.14423124500000001</v>
+        <v>0.14475537799999999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>0.309</v>
+        <v>0.308</v>
       </c>
       <c r="B306">
-        <v>0.126983449</v>
+        <v>0.1274544</v>
       </c>
       <c r="C306">
-        <v>0.16552926600000001</v>
+        <v>0.166113541</v>
       </c>
       <c r="D306">
-        <v>0.14371030000000001</v>
+        <v>0.14423124500000001</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="B307">
-        <v>0.126515403</v>
+        <v>0.126983449</v>
       </c>
       <c r="C307">
-        <v>0.164948493</v>
+        <v>0.16552926600000001</v>
       </c>
       <c r="D307">
-        <v>0.14319246999999999</v>
+        <v>0.14371030000000001</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="B308">
-        <v>0.12605023400000001</v>
+        <v>0.126515403</v>
       </c>
       <c r="C308">
-        <v>0.16437116299999999</v>
+        <v>0.164948493</v>
       </c>
       <c r="D308">
-        <v>0.14267781399999999</v>
+        <v>0.14319246999999999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>0.312</v>
+        <v>0.311</v>
       </c>
       <c r="B309">
-        <v>0.12558800000000001</v>
+        <v>0.12605023400000001</v>
       </c>
       <c r="C309">
-        <v>0.16379733399999999</v>
+        <v>0.16437116299999999</v>
       </c>
       <c r="D309">
-        <v>0.14216631699999999</v>
+        <v>0.14267781399999999</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>0.313</v>
+        <v>0.312</v>
       </c>
       <c r="B310">
-        <v>0.12512859700000001</v>
+        <v>0.12558800000000001</v>
       </c>
       <c r="C310">
-        <v>0.16322687299999999</v>
+        <v>0.16379733399999999</v>
       </c>
       <c r="D310">
-        <v>0.141657904</v>
+        <v>0.14216631699999999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="B311">
-        <v>0.12467194299999999</v>
+        <v>0.12512859700000001</v>
       </c>
       <c r="C311">
-        <v>0.16265976400000001</v>
+        <v>0.16322687299999999</v>
       </c>
       <c r="D311">
-        <v>0.14115250100000001</v>
+        <v>0.141657904</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="B312">
-        <v>0.12421803200000001</v>
+        <v>0.12467194299999999</v>
       </c>
       <c r="C312">
-        <v>0.16209590400000001</v>
+        <v>0.16265976400000001</v>
       </c>
       <c r="D312">
-        <v>0.14065007900000001</v>
+        <v>0.14115250100000001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="B313">
-        <v>0.123766951</v>
+        <v>0.12421803200000001</v>
       </c>
       <c r="C313">
-        <v>0.16153542700000001</v>
+        <v>0.16209590400000001</v>
       </c>
       <c r="D313">
-        <v>0.140150726</v>
+        <v>0.14065007900000001</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="B314">
-        <v>0.123318635</v>
+        <v>0.123766951</v>
       </c>
       <c r="C314">
-        <v>0.16097827300000001</v>
+        <v>0.16153542700000001</v>
       </c>
       <c r="D314">
-        <v>0.13965439800000001</v>
+        <v>0.140150726</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="B315">
-        <v>0.122872986</v>
+        <v>0.123318635</v>
       </c>
       <c r="C315">
-        <v>0.16042435199999999</v>
+        <v>0.16097827300000001</v>
       </c>
       <c r="D315">
-        <v>0.139160961</v>
+        <v>0.13965439800000001</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>0.31900000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="B316">
-        <v>0.122429959</v>
+        <v>0.122872986</v>
       </c>
       <c r="C316">
-        <v>0.15987359000000001</v>
+        <v>0.16042435199999999</v>
       </c>
       <c r="D316">
-        <v>0.13867043000000001</v>
+        <v>0.139160961</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>0.32</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="B317">
-        <v>0.12198967500000001</v>
+        <v>0.122429959</v>
       </c>
       <c r="C317">
-        <v>0.159326047</v>
+        <v>0.15987359000000001</v>
       </c>
       <c r="D317">
-        <v>0.13818281900000001</v>
+        <v>0.13867043000000001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>0.32100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="B318">
-        <v>0.121551983</v>
+        <v>0.12198967500000001</v>
       </c>
       <c r="C318">
-        <v>0.15878166299999999</v>
+        <v>0.159326047</v>
       </c>
       <c r="D318">
-        <v>0.13769806900000001</v>
+        <v>0.13818281900000001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>0.32200000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="B319">
-        <v>0.121116899</v>
+        <v>0.121551983</v>
       </c>
       <c r="C319">
-        <v>0.15824042299999999</v>
+        <v>0.15878166299999999</v>
       </c>
       <c r="D319">
-        <v>0.137216166</v>
+        <v>0.13769806900000001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>0.32300000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="B320">
-        <v>0.1206844</v>
+        <v>0.121116899</v>
       </c>
       <c r="C320">
-        <v>0.15770226700000001</v>
+        <v>0.15824042299999999</v>
       </c>
       <c r="D320">
-        <v>0.13673706399999999</v>
+        <v>0.137216166</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>0.32400000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="B321">
-        <v>0.120254494</v>
+        <v>0.1206844</v>
       </c>
       <c r="C321">
-        <v>0.15716722599999999</v>
+        <v>0.15770226700000001</v>
       </c>
       <c r="D321">
-        <v>0.13626080800000001</v>
+        <v>0.13673706399999999</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0.32500000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="B322">
-        <v>0.11982717399999999</v>
+        <v>0.120254494</v>
       </c>
       <c r="C322">
-        <v>0.15663528400000001</v>
+        <v>0.15716722599999999</v>
       </c>
       <c r="D322">
-        <v>0.135787353</v>
+        <v>0.13626080800000001</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>0.32600000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="B323">
-        <v>0.11940223</v>
+        <v>0.11982717399999999</v>
       </c>
       <c r="C323">
-        <v>0.156106204</v>
+        <v>0.15663528400000001</v>
       </c>
       <c r="D323">
-        <v>0.13531647599999999</v>
+        <v>0.135787353</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>0.32700000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="B324">
-        <v>0.118979901</v>
+        <v>0.11940223</v>
       </c>
       <c r="C324">
-        <v>0.15558029700000001</v>
+        <v>0.156106204</v>
       </c>
       <c r="D324">
-        <v>0.13484848999999999</v>
+        <v>0.13531647599999999</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0.32800000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="B325">
-        <v>0.118560024</v>
+        <v>0.118979901</v>
       </c>
       <c r="C325">
-        <v>0.15505729600000001</v>
+        <v>0.15558029700000001</v>
       </c>
       <c r="D325">
-        <v>0.13438314200000001</v>
+        <v>0.13484848999999999</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>0.32900000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="B326">
-        <v>0.118142635</v>
+        <v>0.118560024</v>
       </c>
       <c r="C326">
-        <v>0.15453728999999999</v>
+        <v>0.15505729600000001</v>
       </c>
       <c r="D326">
-        <v>0.13392052099999999</v>
+        <v>0.13438314200000001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>0.33</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="B327">
-        <v>0.1177276</v>
+        <v>0.118142635</v>
       </c>
       <c r="C327">
-        <v>0.154020131</v>
+        <v>0.15453728999999999</v>
       </c>
       <c r="D327">
-        <v>0.13346044700000001</v>
+        <v>0.13392052099999999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>0.33100000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="B328">
-        <v>0.117315009</v>
+        <v>0.1177276</v>
       </c>
       <c r="C328">
-        <v>0.15350592099999999</v>
+        <v>0.154020131</v>
       </c>
       <c r="D328">
-        <v>0.133003071</v>
+        <v>0.13346044700000001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>0.33200000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="B329">
-        <v>0.11690481799999999</v>
+        <v>0.117315009</v>
       </c>
       <c r="C329">
-        <v>0.15299457299999999</v>
+        <v>0.15350592099999999</v>
       </c>
       <c r="D329">
-        <v>0.13254828799999999</v>
+        <v>0.133003071</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>0.33300000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="B330">
-        <v>0.116496973</v>
+        <v>0.11690481799999999</v>
       </c>
       <c r="C330">
-        <v>0.152486071</v>
+        <v>0.15299457299999999</v>
       </c>
       <c r="D330">
-        <v>0.132096082</v>
+        <v>0.13254828799999999</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>0.33400000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="B331">
-        <v>0.116091505</v>
+        <v>0.116496973</v>
       </c>
       <c r="C331">
-        <v>0.15198043</v>
+        <v>0.152486071</v>
       </c>
       <c r="D331">
-        <v>0.13164648400000001</v>
+        <v>0.132096082</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>0.33500000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="B332">
-        <v>0.115688376</v>
+        <v>0.116091505</v>
       </c>
       <c r="C332">
-        <v>0.15147756000000001</v>
+        <v>0.15198043</v>
       </c>
       <c r="D332">
-        <v>0.13119939</v>
+        <v>0.13164648400000001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>0.33600000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="B333">
-        <v>0.115287527</v>
+        <v>0.115688376</v>
       </c>
       <c r="C333">
-        <v>0.150977522</v>
+        <v>0.15147756000000001</v>
       </c>
       <c r="D333">
-        <v>0.13075482799999999</v>
+        <v>0.13119939</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>0.33700000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="B334">
-        <v>0.114888951</v>
+        <v>0.115287527</v>
       </c>
       <c r="C334">
-        <v>0.15048015100000001</v>
+        <v>0.150977522</v>
       </c>
       <c r="D334">
-        <v>0.130312711</v>
+        <v>0.13075482799999999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>0.33800000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="B335">
-        <v>0.11449272200000001</v>
+        <v>0.114888951</v>
       </c>
       <c r="C335">
-        <v>0.149985641</v>
+        <v>0.15048015100000001</v>
       </c>
       <c r="D335">
-        <v>0.129873186</v>
+        <v>0.130312711</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>0.33900000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="B336">
-        <v>0.114098728</v>
+        <v>0.11449272200000001</v>
       </c>
       <c r="C336">
-        <v>0.149493814</v>
+        <v>0.149985641</v>
       </c>
       <c r="D336">
-        <v>0.129436091</v>
+        <v>0.129873186</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>0.34</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="B337">
-        <v>0.113706961</v>
+        <v>0.114098728</v>
       </c>
       <c r="C337">
-        <v>0.14900463799999999</v>
+        <v>0.149493814</v>
       </c>
       <c r="D337">
-        <v>0.12900140900000001</v>
+        <v>0.129436091</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>0.34100000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="B338">
-        <v>0.113317378</v>
+        <v>0.113706961</v>
       </c>
       <c r="C338">
-        <v>0.14851811500000001</v>
+        <v>0.14900463799999999</v>
       </c>
       <c r="D338">
-        <v>0.12856912600000001</v>
+        <v>0.12900140900000001</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="B339">
-        <v>0.11292996299999999</v>
+        <v>0.113317378</v>
       </c>
       <c r="C339">
-        <v>0.14803422999999999</v>
+        <v>0.14851811500000001</v>
       </c>
       <c r="D339">
-        <v>0.12813922799999999</v>
+        <v>0.12856912600000001</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>0.34300000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="B340">
-        <v>0.112544745</v>
+        <v>0.11292996299999999</v>
       </c>
       <c r="C340">
-        <v>0.14755296700000001</v>
+        <v>0.14803422999999999</v>
       </c>
       <c r="D340">
-        <v>0.127711713</v>
+        <v>0.12813922799999999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0.34399999999999997</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="B341">
-        <v>0.11216174800000001</v>
+        <v>0.112544745</v>
       </c>
       <c r="C341">
-        <v>0.14707440099999999</v>
+        <v>0.14755296700000001</v>
       </c>
       <c r="D341">
-        <v>0.127286598</v>
+        <v>0.127711713</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.34499999999999997</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="B342">
-        <v>0.11178083699999999</v>
+        <v>0.11216174800000001</v>
       </c>
       <c r="C342">
-        <v>0.14659835399999999</v>
+        <v>0.14707440099999999</v>
       </c>
       <c r="D342">
-        <v>0.126863793</v>
+        <v>0.127286598</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.34599999999999997</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="B343">
-        <v>0.111402057</v>
+        <v>0.11178083699999999</v>
       </c>
       <c r="C343">
-        <v>0.146124855</v>
+        <v>0.14659835399999999</v>
       </c>
       <c r="D343">
-        <v>0.12644328199999999</v>
+        <v>0.126863793</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.34699999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="B344">
-        <v>0.111025445</v>
+        <v>0.111402057</v>
       </c>
       <c r="C344">
-        <v>0.145653963</v>
+        <v>0.146124855</v>
       </c>
       <c r="D344">
-        <v>0.126025155</v>
+        <v>0.12644328199999999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.34799999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="B345">
-        <v>0.110650793</v>
+        <v>0.111025445</v>
       </c>
       <c r="C345">
-        <v>0.14518551499999999</v>
+        <v>0.145653963</v>
       </c>
       <c r="D345">
-        <v>0.125609204</v>
+        <v>0.126025155</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="B346">
-        <v>0.110278323</v>
+        <v>0.110650793</v>
       </c>
       <c r="C346">
-        <v>0.14471958600000001</v>
+        <v>0.14518551499999999</v>
       </c>
       <c r="D346">
-        <v>0.12519559299999999</v>
+        <v>0.125609204</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.35</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="B347">
-        <v>0.109907851</v>
+        <v>0.110278323</v>
       </c>
       <c r="C347">
-        <v>0.14425613000000001</v>
+        <v>0.14471958600000001</v>
       </c>
       <c r="D347">
-        <v>0.12478418600000001</v>
+        <v>0.12519559299999999</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.35099999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="B348">
-        <v>0.109539464</v>
+        <v>0.109907851</v>
       </c>
       <c r="C348">
-        <v>0.143795222</v>
+        <v>0.14425613000000001</v>
       </c>
       <c r="D348">
-        <v>0.12437506</v>
+        <v>0.12478418600000001</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.35199999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="B349">
-        <v>0.109173045</v>
+        <v>0.109539464</v>
       </c>
       <c r="C349">
-        <v>0.143336624</v>
+        <v>0.143795222</v>
       </c>
       <c r="D349">
-        <v>0.12396805700000001</v>
+        <v>0.12437506</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.35299999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="B350">
-        <v>0.108808659</v>
+        <v>0.109173045</v>
       </c>
       <c r="C350">
-        <v>0.14288051399999999</v>
+        <v>0.143336624</v>
       </c>
       <c r="D350">
-        <v>0.123563297</v>
+        <v>0.12396805700000001</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.35399999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="B351">
-        <v>0.10844622600000001</v>
+        <v>0.108808659</v>
       </c>
       <c r="C351">
-        <v>0.142426789</v>
+        <v>0.14288051399999999</v>
       </c>
       <c r="D351">
-        <v>0.12316068300000001</v>
+        <v>0.123563297</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>0.35499999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="B352">
-        <v>0.10808580399999999</v>
+        <v>0.10844622600000001</v>
       </c>
       <c r="C352">
-        <v>0.141975462</v>
+        <v>0.142426789</v>
       </c>
       <c r="D352">
-        <v>0.122760251</v>
+        <v>0.12316068300000001</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0.35599999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="B353">
-        <v>0.107727349</v>
+        <v>0.10808580399999999</v>
       </c>
       <c r="C353">
-        <v>0.141526505</v>
+        <v>0.141975462</v>
       </c>
       <c r="D353">
-        <v>0.122361951</v>
+        <v>0.122760251</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0.35699999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="B354">
-        <v>0.107370801</v>
+        <v>0.107727349</v>
       </c>
       <c r="C354">
-        <v>0.14107987299999999</v>
+        <v>0.141526505</v>
       </c>
       <c r="D354">
-        <v>0.12196575900000001</v>
+        <v>0.122361951</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>0.35799999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="B355">
-        <v>0.10701619800000001</v>
+        <v>0.107370801</v>
       </c>
       <c r="C355">
-        <v>0.14063560999999999</v>
+        <v>0.14107987299999999</v>
       </c>
       <c r="D355">
-        <v>0.121571712</v>
+        <v>0.12196575900000001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>0.35899999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="B356">
-        <v>0.10666350300000001</v>
+        <v>0.10701619800000001</v>
       </c>
       <c r="C356">
-        <v>0.14019362599999999</v>
+        <v>0.14063560999999999</v>
       </c>
       <c r="D356">
-        <v>0.121179722</v>
+        <v>0.121571712</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>0.36</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="B357">
-        <v>0.106312685</v>
+        <v>0.10666350300000001</v>
       </c>
       <c r="C357">
-        <v>0.13975393799999999</v>
+        <v>0.14019362599999999</v>
       </c>
       <c r="D357">
-        <v>0.120789796</v>
+        <v>0.121179722</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>0.36099999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="B358">
-        <v>0.105963744</v>
+        <v>0.106312685</v>
       </c>
       <c r="C358">
-        <v>0.13931648399999999</v>
+        <v>0.13975393799999999</v>
       </c>
       <c r="D358">
-        <v>0.12040189699999999</v>
+        <v>0.120789796</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>0.36199999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="B359">
-        <v>0.10561667399999999</v>
+        <v>0.105963744</v>
       </c>
       <c r="C359">
-        <v>0.138881326</v>
+        <v>0.13931648399999999</v>
       </c>
       <c r="D359">
-        <v>0.120016076</v>
+        <v>0.12040189699999999</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>0.36299999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="B360">
-        <v>0.105271488</v>
+        <v>0.10561667399999999</v>
       </c>
       <c r="C360">
-        <v>0.13844843200000001</v>
+        <v>0.138881326</v>
       </c>
       <c r="D360">
-        <v>0.119632319</v>
+        <v>0.120016076</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>0.36399999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="B361">
-        <v>0.104928069</v>
+        <v>0.105271488</v>
       </c>
       <c r="C361">
-        <v>0.13801769899999999</v>
+        <v>0.13844843200000001</v>
       </c>
       <c r="D361">
-        <v>0.119250499</v>
+        <v>0.119632319</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>0.36499999999999999</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="B362">
-        <v>0.10458653399999999</v>
+        <v>0.104928069</v>
       </c>
       <c r="C362">
-        <v>0.13758921599999999</v>
+        <v>0.13801769899999999</v>
       </c>
       <c r="D362">
-        <v>0.118870698</v>
+        <v>0.119250499</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>0.36599999999999999</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="B363">
-        <v>0.104246818</v>
+        <v>0.10458653399999999</v>
       </c>
       <c r="C363">
-        <v>0.13716292399999999</v>
+        <v>0.13758921599999999</v>
       </c>
       <c r="D363">
-        <v>0.118492879</v>
+        <v>0.118870698</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>0.36699999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="B364">
-        <v>0.103908792</v>
+        <v>0.104246818</v>
       </c>
       <c r="C364">
-        <v>0.13673871800000001</v>
+        <v>0.13716292399999999</v>
       </c>
       <c r="D364">
-        <v>0.118116952</v>
+        <v>0.118492879</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>0.36799999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="B365">
-        <v>0.103572622</v>
+        <v>0.103908792</v>
       </c>
       <c r="C365">
-        <v>0.13631676100000001</v>
+        <v>0.13673871800000001</v>
       </c>
       <c r="D365">
-        <v>0.11774306</v>
+        <v>0.118116952</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>0.36899999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="B366">
-        <v>0.103238225</v>
+        <v>0.103572622</v>
       </c>
       <c r="C366">
-        <v>0.13589690600000001</v>
+        <v>0.13631676100000001</v>
       </c>
       <c r="D366">
-        <v>0.11737107500000001</v>
+        <v>0.11774306</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>0.37</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="B367">
-        <v>0.102905564</v>
+        <v>0.103238225</v>
       </c>
       <c r="C367">
-        <v>0.135479197</v>
+        <v>0.13589690600000001</v>
       </c>
       <c r="D367">
-        <v>0.117001019</v>
+        <v>0.11737107500000001</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="B368">
-        <v>0.102574579</v>
+        <v>0.102905564</v>
       </c>
       <c r="C368">
-        <v>0.135063514</v>
+        <v>0.135479197</v>
       </c>
       <c r="D368">
-        <v>0.116632797</v>
+        <v>0.117001019</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="B369">
-        <v>0.10224542</v>
+        <v>0.102574579</v>
       </c>
       <c r="C369">
-        <v>0.134650037</v>
+        <v>0.135063514</v>
       </c>
       <c r="D369">
-        <v>0.11626655599999999</v>
+        <v>0.116632797</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="B370">
-        <v>0.10191790000000001</v>
+        <v>0.10224542</v>
       </c>
       <c r="C370">
-        <v>0.13423855600000001</v>
+        <v>0.134650037</v>
       </c>
       <c r="D370">
-        <v>0.11590212599999999</v>
+        <v>0.11626655599999999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="B371">
-        <v>0.101592064</v>
+        <v>0.10191790000000001</v>
       </c>
       <c r="C371">
-        <v>0.13382910200000001</v>
+        <v>0.13423855600000001</v>
       </c>
       <c r="D371">
-        <v>0.11553952100000001</v>
+        <v>0.11590212599999999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="B372">
-        <v>0.101267986</v>
+        <v>0.101592064</v>
       </c>
       <c r="C372">
-        <v>0.13342182299999999</v>
+        <v>0.13382910200000001</v>
       </c>
       <c r="D372">
-        <v>0.115178846</v>
+        <v>0.11553952100000001</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="B373">
-        <v>0.10094552499999999</v>
+        <v>0.101267986</v>
       </c>
       <c r="C373">
-        <v>0.13301645200000001</v>
+        <v>0.13342182299999999</v>
       </c>
       <c r="D373">
-        <v>0.114819936</v>
+        <v>0.115178846</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="B374">
-        <v>0.10062474</v>
+        <v>0.10094552499999999</v>
       </c>
       <c r="C374">
-        <v>0.132613122</v>
+        <v>0.13301645200000001</v>
       </c>
       <c r="D374">
-        <v>0.11446289699999999</v>
+        <v>0.114819936</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="B375">
-        <v>0.100305595</v>
+        <v>0.10062474</v>
       </c>
       <c r="C375">
-        <v>0.13221181900000001</v>
+        <v>0.132613122</v>
       </c>
       <c r="D375">
-        <v>0.114107609</v>
+        <v>0.11446289699999999</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="B376">
-        <v>9.9988124999999997E-2</v>
+        <v>0.100305595</v>
       </c>
       <c r="C376">
-        <v>0.131812498</v>
+        <v>0.13221181900000001</v>
       </c>
       <c r="D376">
-        <v>0.113754168</v>
+        <v>0.114107609</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="B377">
-        <v>9.9672205999999999E-2</v>
+        <v>9.9988124999999997E-2</v>
       </c>
       <c r="C377">
-        <v>0.131415114</v>
+        <v>0.131812498</v>
       </c>
       <c r="D377">
-        <v>0.113402471</v>
+        <v>0.113754168</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>0.38100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="B378">
-        <v>9.9357909999999994E-2</v>
+        <v>9.9672205999999999E-2</v>
       </c>
       <c r="C378">
-        <v>0.131019682</v>
+        <v>0.131415114</v>
       </c>
       <c r="D378">
-        <v>0.113052495</v>
+        <v>0.113402471</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>0.38200000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="B379">
-        <v>9.9045231999999997E-2</v>
+        <v>9.9357909999999994E-2</v>
       </c>
       <c r="C379">
-        <v>0.13062617200000001</v>
+        <v>0.131019682</v>
       </c>
       <c r="D379">
-        <v>0.11270429899999999</v>
+        <v>0.113052495</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>0.38300000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="B380">
-        <v>9.8734133000000002E-2</v>
+        <v>9.9045231999999997E-2</v>
       </c>
       <c r="C380">
-        <v>0.13023462899999999</v>
+        <v>0.13062617200000001</v>
       </c>
       <c r="D380">
-        <v>0.11235785500000001</v>
+        <v>0.11270429899999999</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>0.38400000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="B381">
-        <v>9.8424599000000002E-2</v>
+        <v>9.8734133000000002E-2</v>
       </c>
       <c r="C381">
-        <v>0.129844978</v>
+        <v>0.13023462899999999</v>
       </c>
       <c r="D381">
-        <v>0.112013116</v>
+        <v>0.11235785500000001</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>0.38500000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="B382">
-        <v>9.8116621000000001E-2</v>
+        <v>9.8424599000000002E-2</v>
       </c>
       <c r="C382">
-        <v>0.129457191</v>
+        <v>0.129844978</v>
       </c>
       <c r="D382">
-        <v>0.11167004</v>
+        <v>0.112013116</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>0.38600000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="B383">
-        <v>9.7810156999999995E-2</v>
+        <v>9.8116621000000001E-2</v>
       </c>
       <c r="C383">
-        <v>0.12907130999999999</v>
+        <v>0.129457191</v>
       </c>
       <c r="D383">
-        <v>0.111328706</v>
+        <v>0.11167004</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>0.38700000000000001</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="B384">
-        <v>9.7505331000000001E-2</v>
+        <v>9.7810156999999995E-2</v>
       </c>
       <c r="C384">
-        <v>0.128687352</v>
+        <v>0.12907130999999999</v>
       </c>
       <c r="D384">
-        <v>0.110989094</v>
+        <v>0.111328706</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>0.38800000000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="B385">
-        <v>9.7201966000000001E-2</v>
+        <v>9.7505331000000001E-2</v>
       </c>
       <c r="C385">
-        <v>0.12830519700000001</v>
+        <v>0.128687352</v>
       </c>
       <c r="D385">
-        <v>0.11065112100000001</v>
+        <v>0.110989094</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>0.38900000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="B386">
-        <v>9.6900142999999994E-2</v>
+        <v>9.7201966000000001E-2</v>
       </c>
       <c r="C386">
-        <v>0.12792490400000001</v>
+        <v>0.12830519700000001</v>
       </c>
       <c r="D386">
-        <v>0.110314839</v>
+        <v>0.11065112100000001</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>0.39</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="B387">
-        <v>9.6599743000000002E-2</v>
+        <v>9.6900142999999994E-2</v>
       </c>
       <c r="C387">
-        <v>0.12754638500000001</v>
+        <v>0.12792490400000001</v>
       </c>
       <c r="D387">
-        <v>0.109980129</v>
+        <v>0.110314839</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>0.39100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="B388">
-        <v>9.6300915000000001E-2</v>
+        <v>9.6599743000000002E-2</v>
       </c>
       <c r="C388">
-        <v>0.12716971299999999</v>
+        <v>0.12754638500000001</v>
       </c>
       <c r="D388">
-        <v>0.109647118</v>
+        <v>0.109980129</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>0.39200000000000002</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="B389">
-        <v>9.6003585000000002E-2</v>
+        <v>9.6300915000000001E-2</v>
       </c>
       <c r="C389">
-        <v>0.12679488999999999</v>
+        <v>0.12716971299999999</v>
       </c>
       <c r="D389">
-        <v>0.10931571599999999</v>
+        <v>0.109647118</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.39300000000000002</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="B390">
-        <v>9.5707677000000005E-2</v>
+        <v>9.6003585000000002E-2</v>
       </c>
       <c r="C390">
-        <v>0.12642182399999999</v>
+        <v>0.12679488999999999</v>
       </c>
       <c r="D390">
-        <v>0.10898593099999999</v>
+        <v>0.10931571599999999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.39400000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="B391">
-        <v>9.5413223000000005E-2</v>
+        <v>9.5707677000000005E-2</v>
       </c>
       <c r="C391">
-        <v>0.12605048699999999</v>
+        <v>0.12642182399999999</v>
       </c>
       <c r="D391">
-        <v>0.108657718</v>
+        <v>0.10898593099999999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.39500000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="B392">
-        <v>9.5120244000000007E-2</v>
+        <v>9.5413223000000005E-2</v>
       </c>
       <c r="C392">
-        <v>0.12568095300000001</v>
+        <v>0.12605048699999999</v>
       </c>
       <c r="D392">
-        <v>0.108331122</v>
+        <v>0.108657718</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.39600000000000002</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="B393">
-        <v>9.4828687999999994E-2</v>
+        <v>9.5120244000000007E-2</v>
       </c>
       <c r="C393">
-        <v>0.12531316300000001</v>
+        <v>0.12568095300000001</v>
       </c>
       <c r="D393">
-        <v>0.108006068</v>
+        <v>0.108331122</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.39700000000000002</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="B394">
-        <v>9.4538606999999997E-2</v>
+        <v>9.4828687999999994E-2</v>
       </c>
       <c r="C394">
-        <v>0.124947168</v>
+        <v>0.12531316300000001</v>
       </c>
       <c r="D394">
-        <v>0.10768266</v>
+        <v>0.108006068</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.39800000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="B395">
-        <v>9.4249859000000005E-2</v>
+        <v>9.4538606999999997E-2</v>
       </c>
       <c r="C395">
-        <v>0.124582805</v>
+        <v>0.124947168</v>
       </c>
       <c r="D395">
-        <v>0.10736075</v>
+        <v>0.10768266</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>0.39900000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="B396">
-        <v>9.3962580000000004E-2</v>
+        <v>9.4249859000000005E-2</v>
       </c>
       <c r="C396">
-        <v>0.12422022200000001</v>
+        <v>0.124582805</v>
       </c>
       <c r="D396">
-        <v>0.10704039</v>
+        <v>0.10736075</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>0.4</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="B397">
-        <v>9.3676671000000003E-2</v>
+        <v>9.3962580000000004E-2</v>
       </c>
       <c r="C397">
-        <v>0.123859286</v>
+        <v>0.12422022200000001</v>
       </c>
       <c r="D397">
-        <v>0.106721528</v>
+        <v>0.10704039</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B398">
-        <v>6.7214854000000004E-2</v>
+        <v>9.3676671000000003E-2</v>
       </c>
       <c r="C398">
-        <v>8.9968330999999999E-2</v>
+        <v>0.123859286</v>
       </c>
       <c r="D398">
-        <v>7.7014527999999999E-2</v>
+        <v>0.106721528</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B399">
-        <v>3.4310840000000002E-2</v>
+        <v>6.7214854000000004E-2</v>
       </c>
       <c r="C399">
-        <v>4.7578473000000003E-2</v>
+        <v>8.9968330999999999E-2</v>
       </c>
       <c r="D399">
-        <v>3.9967425000000001E-2</v>
+        <v>7.7014527999999999E-2</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="B400">
-        <v>2.3055933000000001E-2</v>
+        <v>3.4310840000000002E-2</v>
       </c>
       <c r="C400">
-        <v>2.9388843000000001E-2</v>
+        <v>4.7578473000000003E-2</v>
       </c>
       <c r="D400">
-        <v>2.4359270999999998E-2</v>
+        <v>3.9967425000000001E-2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="B401">
-        <v>1.1117168E-2</v>
+        <v>2.3055933000000001E-2</v>
       </c>
       <c r="C401">
-        <v>1.3178132E-2</v>
+        <v>2.9388843000000001E-2</v>
       </c>
       <c r="D401">
-        <v>1.1117168E-2</v>
+        <v>2.4359270999999998E-2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="B402">
-        <v>6.1454459999999997E-3</v>
+        <v>1.1117168E-2</v>
       </c>
       <c r="C402">
-        <v>7.0916620000000003E-3</v>
+        <v>1.3178132E-2</v>
       </c>
       <c r="D402">
-        <v>6.1454459999999997E-3</v>
+        <v>1.1117168E-2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B403">
-        <v>2.7313089999999999E-3</v>
+        <v>6.1454459999999997E-3</v>
       </c>
       <c r="C403">
-        <v>3.1518499999999999E-3</v>
+        <v>7.0916620000000003E-3</v>
       </c>
       <c r="D403">
-        <v>2.7313089999999999E-3</v>
+        <v>6.1454459999999997E-3</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B404">
-        <v>1.536361E-3</v>
+        <v>2.7313089999999999E-3</v>
       </c>
       <c r="C404">
-        <v>1.7729149999999999E-3</v>
+        <v>3.1518499999999999E-3</v>
       </c>
       <c r="D404">
-        <v>1.536361E-3</v>
+        <v>2.7313089999999999E-3</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B405">
-        <v>9.8327099999999997E-4</v>
+        <v>1.536361E-3</v>
       </c>
       <c r="C405">
-        <v>1.1346660000000001E-3</v>
+        <v>1.7729149999999999E-3</v>
       </c>
       <c r="D405">
-        <v>9.8327099999999997E-4</v>
+        <v>1.536361E-3</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="B406">
-        <v>4.3700899999999998E-4</v>
+        <v>9.8327099999999997E-4</v>
       </c>
       <c r="C406">
-        <v>5.04296E-4</v>
+        <v>1.1346660000000001E-3</v>
       </c>
       <c r="D406">
-        <v>4.3700899999999998E-4</v>
+        <v>9.8327099999999997E-4</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
+        <v>7.5</v>
+      </c>
+      <c r="B407">
+        <v>4.3700899999999998E-4</v>
+      </c>
+      <c r="C407">
+        <v>5.04296E-4</v>
+      </c>
+      <c r="D407">
+        <v>4.3700899999999998E-4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>10</v>
       </c>
-      <c r="B407">
+      <c r="B408">
         <v>2.4581800000000002E-4</v>
       </c>
-      <c r="C407">
+      <c r="C408">
         <v>2.8366600000000002E-4</v>
       </c>
-      <c r="D407">
+      <c r="D408">
         <v>2.4581800000000002E-4</v>
       </c>
     </row>
